--- a/后台表.xlsx
+++ b/后台表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12470"/>
+    <workbookView windowWidth="21600" windowHeight="9840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="160">
   <si>
     <t>数据项</t>
   </si>
@@ -169,6 +169,24 @@
     <t>nba/cba</t>
   </si>
   <si>
+    <t>排名</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>教练</t>
+  </si>
+  <si>
+    <t>coach</t>
+  </si>
+  <si>
+    <t>分区</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
     <t>成立时间</t>
   </si>
   <si>
@@ -238,10 +256,28 @@
     <t>playerId</t>
   </si>
   <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>playerName</t>
+  </si>
+  <si>
     <t>playerIcon</t>
   </si>
   <si>
     <t>所属球队</t>
+  </si>
+  <si>
+    <t>年龄</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>场上位置</t>
+  </si>
+  <si>
+    <t>role</t>
   </si>
   <si>
     <t>加入联盟时间</t>
@@ -481,9 +517,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -502,24 +538,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -541,7 +568,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -555,29 +590,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -593,18 +607,26 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -615,9 +637,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -631,16 +652,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -661,7 +697,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,175 +871,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -870,21 +906,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -896,11 +917,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -939,6 +966,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -953,17 +995,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -975,10 +1011,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -987,133 +1023,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1451,16 +1487,16 @@
   <sheetPr/>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="12.6363636363636" customWidth="1"/>
-    <col min="2" max="2" width="14.1818181818182" customWidth="1"/>
-    <col min="3" max="3" width="12.7272727272727" customWidth="1"/>
-    <col min="4" max="4" width="51.1818181818182" customWidth="1"/>
+    <col min="1" max="1" width="12.6333333333333" customWidth="1"/>
+    <col min="2" max="2" width="14.1833333333333" customWidth="1"/>
+    <col min="3" max="3" width="12.725" customWidth="1"/>
+    <col min="4" max="4" width="51.1833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -1646,11 +1682,11 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="29.4545454545455" customWidth="1"/>
-    <col min="3" max="3" width="18.8181818181818" customWidth="1"/>
-    <col min="4" max="4" width="30.1818181818182" customWidth="1"/>
+    <col min="1" max="1" width="29.4583333333333" customWidth="1"/>
+    <col min="3" max="3" width="18.8166666666667" customWidth="1"/>
+    <col min="4" max="4" width="30.1833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -1669,29 +1705,28 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:3">
       <c r="A3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3"/>
+        <v>137</v>
+      </c>
       <c r="C3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
@@ -1712,12 +1747,12 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="11.2727272727273" customWidth="1"/>
-    <col min="2" max="2" width="22.1818181818182" customWidth="1"/>
-    <col min="3" max="3" width="15.3636363636364" customWidth="1"/>
-    <col min="4" max="4" width="23.1818181818182" customWidth="1"/>
+    <col min="1" max="1" width="11.275" customWidth="1"/>
+    <col min="2" max="2" width="22.1833333333333" customWidth="1"/>
+    <col min="3" max="3" width="15.3666666666667" customWidth="1"/>
+    <col min="4" max="4" width="23.1833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -1736,7 +1771,7 @@
     </row>
     <row r="2" s="2" customFormat="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -1744,15 +1779,15 @@
     </row>
     <row r="3" s="2" customFormat="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -1768,10 +1803,10 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1789,10 +1824,10 @@
       <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="16.3636363636364" customWidth="1"/>
-    <col min="2" max="2" width="25.8181818181818" customWidth="1"/>
+    <col min="1" max="1" width="16.3666666666667" customWidth="1"/>
+    <col min="2" max="2" width="25.8166666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -1811,27 +1846,27 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1849,11 +1884,11 @@
       <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="15.1818181818182" customWidth="1"/>
-    <col min="2" max="2" width="23.1818181818182" customWidth="1"/>
-    <col min="4" max="4" width="25.2727272727273" customWidth="1"/>
+    <col min="1" max="1" width="15.1833333333333" customWidth="1"/>
+    <col min="2" max="2" width="23.1833333333333" customWidth="1"/>
+    <col min="4" max="4" width="25.275" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -1872,7 +1907,7 @@
     </row>
     <row r="2" s="2" customFormat="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -1880,15 +1915,15 @@
     </row>
     <row r="3" s="2" customFormat="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -1904,10 +1939,10 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1925,11 +1960,11 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="22.3636363636364" customWidth="1"/>
-    <col min="3" max="3" width="23.3636363636364" customWidth="1"/>
-    <col min="4" max="4" width="32.9090909090909" customWidth="1"/>
+    <col min="1" max="1" width="22.3666666666667" customWidth="1"/>
+    <col min="3" max="3" width="23.3666666666667" customWidth="1"/>
+    <col min="4" max="4" width="32.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -1948,27 +1983,27 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1986,12 +2021,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="14.9090909090909" customWidth="1"/>
-    <col min="2" max="2" width="13.2727272727273" customWidth="1"/>
-    <col min="3" max="3" width="25.3636363636364" customWidth="1"/>
-    <col min="4" max="4" width="35.2727272727273" customWidth="1"/>
+    <col min="1" max="1" width="14.9083333333333" customWidth="1"/>
+    <col min="2" max="2" width="13.275" customWidth="1"/>
+    <col min="3" max="3" width="25.3666666666667" customWidth="1"/>
+    <col min="4" max="4" width="35.275" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -2010,7 +2045,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -2024,15 +2059,15 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2050,12 +2085,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="17.5454545454545" customWidth="1"/>
-    <col min="2" max="2" width="16.8181818181818" customWidth="1"/>
-    <col min="3" max="3" width="16.6363636363636" customWidth="1"/>
-    <col min="4" max="4" width="19.2727272727273" customWidth="1"/>
+    <col min="1" max="1" width="17.5416666666667" customWidth="1"/>
+    <col min="2" max="2" width="16.8166666666667" customWidth="1"/>
+    <col min="3" max="3" width="16.6333333333333" customWidth="1"/>
+    <col min="4" max="4" width="19.275" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -2074,7 +2109,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -2082,7 +2117,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -2090,7 +2125,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -2098,13 +2133,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2116,18 +2151,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="19.6363636363636" customWidth="1"/>
-    <col min="2" max="2" width="37.8181818181818" customWidth="1"/>
-    <col min="3" max="3" width="12.5454545454545" customWidth="1"/>
-    <col min="4" max="4" width="19.0909090909091" customWidth="1"/>
+    <col min="1" max="1" width="19.6333333333333" customWidth="1"/>
+    <col min="2" max="2" width="37.8166666666667" customWidth="1"/>
+    <col min="3" max="3" width="12.5416666666667" customWidth="1"/>
+    <col min="4" max="4" width="19.0916666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -2193,23 +2228,56 @@
         <v>47</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:3">
+      <c r="A7" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="B7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:3">
+      <c r="A8" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="B8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:3">
+      <c r="A9" s="2" t="s">
         <v>52</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2223,16 +2291,16 @@
   <sheetPr/>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="16.2727272727273" customWidth="1"/>
-    <col min="2" max="2" width="16.6363636363636" customWidth="1"/>
-    <col min="3" max="3" width="15.5454545454545" customWidth="1"/>
-    <col min="4" max="4" width="17.5454545454545" customWidth="1"/>
+    <col min="1" max="1" width="16.275" customWidth="1"/>
+    <col min="2" max="2" width="16.6333333333333" customWidth="1"/>
+    <col min="3" max="3" width="15.5416666666667" customWidth="1"/>
+    <col min="4" max="4" width="17.5416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -2251,7 +2319,7 @@
     </row>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -2273,49 +2341,49 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -2323,30 +2391,30 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2358,17 +2426,17 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="18.4545454545455" customWidth="1"/>
-    <col min="2" max="2" width="17.9090909090909" customWidth="1"/>
-    <col min="3" max="3" width="13.9090909090909" customWidth="1"/>
+    <col min="1" max="1" width="18.4583333333333" customWidth="1"/>
+    <col min="2" max="2" width="17.9083333333333" customWidth="1"/>
+    <col min="3" max="3" width="13.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -2387,7 +2455,7 @@
     </row>
     <row r="2" s="2" customFormat="1" spans="2:3">
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -2395,46 +2463,76 @@
     </row>
     <row r="3" s="2" customFormat="1" spans="1:2">
       <c r="A3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:2">
+      <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="1:3">
-      <c r="A4" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="B4" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:4">
+      <c r="A6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:3">
-      <c r="A6" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>48</v>
+    <row r="7" s="2" customFormat="1" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2452,11 +2550,11 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="14.2727272727273" customWidth="1"/>
-    <col min="2" max="2" width="17.7272727272727" customWidth="1"/>
-    <col min="4" max="4" width="15.1818181818182" customWidth="1"/>
+    <col min="1" max="1" width="14.275" customWidth="1"/>
+    <col min="2" max="2" width="17.725" customWidth="1"/>
+    <col min="4" max="4" width="15.1833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -2475,10 +2573,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -2486,10 +2584,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
@@ -2497,21 +2595,21 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -2519,226 +2617,226 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="C15" t="s">
         <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
         <v>95</v>
-      </c>
-      <c r="C17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C18" t="s">
         <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C20" t="s">
         <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="C21" t="s">
         <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2756,12 +2854,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="16.1818181818182" customWidth="1"/>
-    <col min="2" max="2" width="21.0909090909091" customWidth="1"/>
-    <col min="3" max="3" width="16.6363636363636" customWidth="1"/>
-    <col min="4" max="4" width="25.5454545454545" customWidth="1"/>
+    <col min="1" max="1" width="16.1833333333333" customWidth="1"/>
+    <col min="2" max="2" width="21.0916666666667" customWidth="1"/>
+    <col min="3" max="3" width="16.6333333333333" customWidth="1"/>
+    <col min="4" max="4" width="25.5416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -2780,15 +2878,15 @@
     </row>
     <row r="2" s="2" customFormat="1" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>30</v>
@@ -2796,10 +2894,10 @@
     </row>
     <row r="4" s="2" customFormat="1" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>30</v>
@@ -2807,10 +2905,10 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2828,11 +2926,11 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="21.4545454545455" customWidth="1"/>
-    <col min="2" max="2" width="20.8181818181818" customWidth="1"/>
-    <col min="4" max="4" width="36.1818181818182" customWidth="1"/>
+    <col min="1" max="1" width="21.4583333333333" customWidth="1"/>
+    <col min="2" max="2" width="20.8166666666667" customWidth="1"/>
+    <col min="4" max="4" width="36.1833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -2851,23 +2949,23 @@
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
@@ -2875,13 +2973,13 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2899,9 +2997,9 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="4" max="4" width="16.9090909090909" customWidth="1"/>
+    <col min="4" max="4" width="16.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -2920,10 +3018,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -2931,30 +3029,30 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2972,10 +3070,10 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="4" max="4" width="15.0909090909091" customWidth="1"/>
+    <col min="4" max="4" width="15.0916666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -2994,7 +3092,7 @@
     </row>
     <row r="2" s="2" customFormat="1" spans="2:3">
       <c r="B2" s="2" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -3002,32 +3100,32 @@
     </row>
     <row r="3" s="2" customFormat="1" spans="2:4">
       <c r="B3" s="2" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="2:4">
       <c r="B4" s="2" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/后台表.xlsx
+++ b/后台表.xlsx
@@ -4,32 +4,34 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9840" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="7070" tabRatio="799" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
     <sheet name="teams" sheetId="14" r:id="rId2"/>
-    <sheet name="match" sheetId="12" r:id="rId3"/>
+    <sheet name="matches" sheetId="12" r:id="rId3"/>
     <sheet name="players" sheetId="16" r:id="rId4"/>
     <sheet name="balls" sheetId="2" r:id="rId5"/>
-    <sheet name="sites" sheetId="3" r:id="rId6"/>
-    <sheet name="comments" sheetId="4" r:id="rId7"/>
-    <sheet name="friends" sheetId="7" r:id="rId8"/>
-    <sheet name="chats" sheetId="8" r:id="rId9"/>
-    <sheet name="chatcontent" sheetId="11" r:id="rId10"/>
-    <sheet name="orders" sheetId="6" r:id="rId11"/>
-    <sheet name="orderitem" sheetId="17" r:id="rId12"/>
-    <sheet name="charts" sheetId="5" r:id="rId13"/>
-    <sheet name="chartitem" sheetId="18" r:id="rId14"/>
-    <sheet name="store" sheetId="9" r:id="rId15"/>
-    <sheet name="items" sheetId="10" r:id="rId16"/>
+    <sheet name="joinBall" sheetId="20" r:id="rId6"/>
+    <sheet name="sites" sheetId="3" r:id="rId7"/>
+    <sheet name="marks" sheetId="19" r:id="rId8"/>
+    <sheet name="comments" sheetId="4" r:id="rId9"/>
+    <sheet name="friends" sheetId="7" r:id="rId10"/>
+    <sheet name="chats" sheetId="8" r:id="rId11"/>
+    <sheet name="chatcontent" sheetId="11" r:id="rId12"/>
+    <sheet name="orders" sheetId="6" r:id="rId13"/>
+    <sheet name="orderitem" sheetId="17" r:id="rId14"/>
+    <sheet name="charts" sheetId="5" r:id="rId15"/>
+    <sheet name="chartitem" sheetId="18" r:id="rId16"/>
+    <sheet name="store" sheetId="9" r:id="rId17"/>
+    <sheet name="items" sheetId="10" r:id="rId18"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="165">
   <si>
     <t>数据项</t>
   </si>
@@ -61,7 +63,7 @@
     <t>用户名</t>
   </si>
   <si>
-    <t>name</t>
+    <t>userName</t>
   </si>
   <si>
     <t>喜爱球队</t>
@@ -97,6 +99,12 @@
     <t>num</t>
   </si>
   <si>
+    <t>收藏</t>
+  </si>
+  <si>
+    <t>mark表</t>
+  </si>
+  <si>
     <t>评论</t>
   </si>
   <si>
@@ -199,7 +207,7 @@
     <t>比赛历史</t>
   </si>
   <si>
-    <t>match表查询</t>
+    <t>matches表查询</t>
   </si>
   <si>
     <t>队员</t>
@@ -292,6 +300,12 @@
     <t>ballId</t>
   </si>
   <si>
+    <t>主题</t>
+  </si>
+  <si>
+    <t>ballTitle</t>
+  </si>
+  <si>
     <t>约球地点</t>
   </si>
   <si>
@@ -304,90 +318,87 @@
     <t>ballTime</t>
   </si>
   <si>
-    <t>人数</t>
+    <t>球友人数</t>
   </si>
   <si>
     <t>ballPeople</t>
   </si>
   <si>
+    <t>初始值为0，前端操作数量</t>
+  </si>
+  <si>
+    <t>ballComments</t>
+  </si>
+  <si>
     <t>组织者</t>
   </si>
   <si>
-    <t>main</t>
-  </si>
-  <si>
     <t>存放userid</t>
   </si>
   <si>
     <t>参与者</t>
   </si>
   <si>
-    <t>other1</t>
-  </si>
-  <si>
-    <t>other2</t>
-  </si>
-  <si>
-    <t>other3</t>
-  </si>
-  <si>
-    <t>other4</t>
-  </si>
-  <si>
-    <t>other5</t>
-  </si>
-  <si>
-    <t>other6</t>
-  </si>
-  <si>
-    <t>other7</t>
-  </si>
-  <si>
-    <t>other8</t>
-  </si>
-  <si>
-    <t>other9</t>
-  </si>
-  <si>
-    <t>other10</t>
-  </si>
-  <si>
-    <t>other11</t>
-  </si>
-  <si>
-    <t>other12</t>
-  </si>
-  <si>
-    <t>other13</t>
-  </si>
-  <si>
-    <t>other14</t>
-  </si>
-  <si>
-    <t>other15</t>
+    <t>joinBall表查询</t>
+  </si>
+  <si>
+    <t>joinId</t>
   </si>
   <si>
     <t>siteId</t>
   </si>
   <si>
+    <t>主贴标题</t>
+  </si>
+  <si>
+    <t>siteTitle</t>
+  </si>
+  <si>
     <t>主贴内容</t>
   </si>
   <si>
     <t>siteContent</t>
   </si>
   <si>
+    <t>发帖时间</t>
+  </si>
+  <si>
+    <t>siteTime</t>
+  </si>
+  <si>
     <t>楼主</t>
   </si>
   <si>
     <t>userid</t>
   </si>
   <si>
-    <t>回帖</t>
+    <t>评论数量</t>
+  </si>
+  <si>
+    <t>comment_quantity</t>
+  </si>
+  <si>
+    <t>收藏数量</t>
+  </si>
+  <si>
+    <t>mark_quantity</t>
+  </si>
+  <si>
+    <t>推荐数量</t>
+  </si>
+  <si>
+    <t>share_quantity</t>
   </si>
   <si>
     <t>comments表查询siteid</t>
   </si>
   <si>
+    <t>markId</t>
+  </si>
+  <si>
+    <t>收藏者</t>
+  </si>
+  <si>
     <t>commentId</t>
   </si>
   <si>
@@ -401,6 +412,12 @@
   </si>
   <si>
     <t>commentTime</t>
+  </si>
+  <si>
+    <t>评论内容</t>
+  </si>
+  <si>
+    <t>commentContent</t>
   </si>
   <si>
     <t>friendId</t>
@@ -516,10 +533,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -546,15 +563,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -576,22 +585,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -606,39 +614,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -652,6 +637,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -667,11 +661,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -681,6 +690,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -697,7 +714,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,175 +894,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -902,32 +919,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -965,17 +956,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -995,6 +982,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1003,6 +1005,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1011,10 +1028,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1023,141 +1040,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1485,18 +1505,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="12.6333333333333" customWidth="1"/>
-    <col min="2" max="2" width="14.1833333333333" customWidth="1"/>
-    <col min="3" max="3" width="12.725" customWidth="1"/>
-    <col min="4" max="4" width="51.1833333333333" customWidth="1"/>
+    <col min="1" max="1" width="12.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="14.1818181818182" customWidth="1"/>
+    <col min="3" max="3" width="12.7272727272727" customWidth="1"/>
+    <col min="4" max="4" width="51.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -1583,29 +1603,26 @@
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C10" t="s">
@@ -1616,55 +1633,66 @@
       <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
         <v>30</v>
       </c>
-      <c r="D12" t="s">
+      <c r="B13" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+      <c r="C13" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="D13" t="s">
         <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>36</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1676,17 +1704,15 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="29.4583333333333" customWidth="1"/>
-    <col min="3" max="3" width="18.8166666666667" customWidth="1"/>
-    <col min="4" max="4" width="30.1833333333333" customWidth="1"/>
+    <col min="4" max="4" width="16.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -1703,33 +1729,43 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" spans="1:3">
+        <v>129</v>
+      </c>
+      <c r="B2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>131</v>
+      </c>
+      <c r="B3" t="s">
+        <v>132</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>133</v>
+      </c>
+      <c r="B4" t="s">
+        <v>134</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1741,18 +1777,16 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="11.275" customWidth="1"/>
-    <col min="2" max="2" width="22.1833333333333" customWidth="1"/>
-    <col min="3" max="3" width="15.3666666666667" customWidth="1"/>
-    <col min="4" max="4" width="23.1833333333333" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="4" max="4" width="15.0909090909091" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -1769,44 +1803,42 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:3">
-      <c r="A2" s="2" t="s">
+    <row r="2" s="2" customFormat="1" spans="2:3">
+      <c r="B2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="2:4">
+      <c r="B3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="2:4">
+      <c r="B4" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" t="s">
         <v>140</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="1:3">
-      <c r="A4" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="1:3">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B6" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1818,16 +1850,17 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="16.3666666666667" customWidth="1"/>
-    <col min="2" max="2" width="25.8166666666667" customWidth="1"/>
+    <col min="1" max="1" width="29.4545454545455" customWidth="1"/>
+    <col min="3" max="3" width="18.8181818181818" customWidth="1"/>
+    <col min="4" max="4" width="30.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -1846,27 +1879,31 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:3">
       <c r="A3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>142</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>143</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>149</v>
+        <v>144</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1881,14 +1918,15 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="15.1833333333333" customWidth="1"/>
-    <col min="2" max="2" width="23.1833333333333" customWidth="1"/>
-    <col min="4" max="4" width="25.275" customWidth="1"/>
+    <col min="1" max="1" width="11.2727272727273" customWidth="1"/>
+    <col min="2" max="2" width="22.1818181818182" customWidth="1"/>
+    <col min="3" max="3" width="15.3636363636364" customWidth="1"/>
+    <col min="4" max="4" width="23.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -1907,7 +1945,7 @@
     </row>
     <row r="2" s="2" customFormat="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -1915,15 +1953,15 @@
     </row>
     <row r="3" s="2" customFormat="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -1939,10 +1977,10 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1957,14 +1995,13 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="22.3666666666667" customWidth="1"/>
-    <col min="3" max="3" width="23.3666666666667" customWidth="1"/>
-    <col min="4" max="4" width="32.9083333333333" customWidth="1"/>
+    <col min="1" max="1" width="16.3636363636364" customWidth="1"/>
+    <col min="2" max="2" width="25.8181818181818" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -1983,27 +2020,27 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2015,18 +2052,17 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="14.9083333333333" customWidth="1"/>
-    <col min="2" max="2" width="13.275" customWidth="1"/>
-    <col min="3" max="3" width="25.3666666666667" customWidth="1"/>
-    <col min="4" max="4" width="35.275" customWidth="1"/>
+    <col min="1" max="1" width="15.1818181818182" customWidth="1"/>
+    <col min="2" max="2" width="23.1818181818182" customWidth="1"/>
+    <col min="4" max="4" width="25.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -2043,31 +2079,44 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+    <row r="2" s="2" customFormat="1" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:3">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B4" t="s">
-        <v>156</v>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2079,18 +2128,143 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="22.3636363636364" customWidth="1"/>
+    <col min="3" max="3" width="23.3636363636364" customWidth="1"/>
+    <col min="4" max="4" width="32.9090909090909" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="14.9090909090909" customWidth="1"/>
+    <col min="2" max="2" width="13.2727272727273" customWidth="1"/>
+    <col min="3" max="3" width="25.3636363636364" customWidth="1"/>
+    <col min="4" max="4" width="35.2727272727273" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="17.5416666666667" customWidth="1"/>
-    <col min="2" max="2" width="16.8166666666667" customWidth="1"/>
-    <col min="3" max="3" width="16.6333333333333" customWidth="1"/>
-    <col min="4" max="4" width="19.275" customWidth="1"/>
+    <col min="1" max="1" width="17.5454545454545" customWidth="1"/>
+    <col min="2" max="2" width="16.8181818181818" customWidth="1"/>
+    <col min="3" max="3" width="16.6363636363636" customWidth="1"/>
+    <col min="4" max="4" width="19.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -2109,7 +2283,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -2117,7 +2291,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -2125,7 +2299,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -2133,13 +2307,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2154,15 +2328,15 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="19.6333333333333" customWidth="1"/>
-    <col min="2" max="2" width="37.8166666666667" customWidth="1"/>
-    <col min="3" max="3" width="12.5416666666667" customWidth="1"/>
-    <col min="4" max="4" width="19.0916666666667" customWidth="1"/>
+    <col min="1" max="1" width="19.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="37.8181818181818" customWidth="1"/>
+    <col min="3" max="3" width="12.5454545454545" customWidth="1"/>
+    <col min="4" max="4" width="19.0909090909091" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -2181,7 +2355,7 @@
     </row>
     <row r="2" s="2" customFormat="1" spans="2:3">
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -2189,43 +2363,43 @@
     </row>
     <row r="3" s="2" customFormat="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>21</v>
@@ -2233,51 +2407,51 @@
     </row>
     <row r="7" s="2" customFormat="1" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2291,16 +2465,16 @@
   <sheetPr/>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="16.275" customWidth="1"/>
-    <col min="2" max="2" width="16.6333333333333" customWidth="1"/>
-    <col min="3" max="3" width="15.5416666666667" customWidth="1"/>
-    <col min="4" max="4" width="17.5416666666667" customWidth="1"/>
+    <col min="1" max="1" width="16.2727272727273" customWidth="1"/>
+    <col min="2" max="2" width="16.6363636363636" customWidth="1"/>
+    <col min="3" max="3" width="15.5454545454545" customWidth="1"/>
+    <col min="4" max="4" width="17.5454545454545" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -2319,7 +2493,7 @@
     </row>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -2327,63 +2501,63 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
         <v>64</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -2391,30 +2565,30 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
         <v>73</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2429,14 +2603,14 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="18.4583333333333" customWidth="1"/>
-    <col min="2" max="2" width="17.9083333333333" customWidth="1"/>
-    <col min="3" max="3" width="13.9083333333333" customWidth="1"/>
+    <col min="1" max="1" width="18.4545454545455" customWidth="1"/>
+    <col min="2" max="2" width="17.9090909090909" customWidth="1"/>
+    <col min="3" max="3" width="13.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -2455,7 +2629,7 @@
     </row>
     <row r="2" s="2" customFormat="1" spans="2:3">
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -2463,10 +2637,10 @@
     </row>
     <row r="3" s="2" customFormat="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:2">
@@ -2474,15 +2648,15 @@
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -2490,24 +2664,24 @@
     </row>
     <row r="6" s="2" customFormat="1" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>21</v>
@@ -2515,24 +2689,24 @@
     </row>
     <row r="8" s="2" customFormat="1" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2544,17 +2718,17 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="14.275" customWidth="1"/>
-    <col min="2" max="2" width="17.725" customWidth="1"/>
-    <col min="4" max="4" width="15.1833333333333" customWidth="1"/>
+    <col min="1" max="1" width="14.2727272727273" customWidth="1"/>
+    <col min="2" max="2" width="17.7272727272727" customWidth="1"/>
+    <col min="4" max="4" width="25.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -2571,272 +2745,95 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+    <row r="2" s="3" customFormat="1" spans="1:3">
+      <c r="A2" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B2" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:3">
+      <c r="A3" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B3" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="C3" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="1" spans="1:3">
+      <c r="A4" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B4" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="1" spans="1:3">
+      <c r="A5" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B5" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C5" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" spans="1:4">
+      <c r="A6" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
+      <c r="B6" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="7" s="3" customFormat="1" spans="1:3">
+      <c r="A7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="C7" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="1" spans="1:4">
+      <c r="A8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" t="s">
         <v>102</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>96</v>
-      </c>
-      <c r="B18" t="s">
-        <v>108</v>
-      </c>
-      <c r="C18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>96</v>
-      </c>
-      <c r="B19" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>96</v>
-      </c>
-      <c r="B20" t="s">
-        <v>110</v>
-      </c>
-      <c r="C20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" t="s">
-        <v>111</v>
-      </c>
-      <c r="C21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2848,18 +2845,18 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="16.1833333333333" customWidth="1"/>
-    <col min="2" max="2" width="21.0916666666667" customWidth="1"/>
-    <col min="3" max="3" width="16.6333333333333" customWidth="1"/>
-    <col min="4" max="4" width="25.5416666666667" customWidth="1"/>
+    <col min="1" max="1" width="21.1818181818182" customWidth="1"/>
+    <col min="2" max="2" width="15.1818181818182" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="16.3636363636364" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -2876,39 +2873,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="2:2">
-      <c r="B2" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="1:3">
-      <c r="A4" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5" t="s">
-        <v>118</v>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2920,17 +2903,18 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="21.4583333333333" customWidth="1"/>
-    <col min="2" max="2" width="20.8166666666667" customWidth="1"/>
-    <col min="4" max="4" width="36.1833333333333" customWidth="1"/>
+    <col min="1" max="1" width="16.1818181818182" customWidth="1"/>
+    <col min="2" max="2" width="21.0909090909091" customWidth="1"/>
+    <col min="3" max="3" width="16.6363636363636" customWidth="1"/>
+    <col min="4" max="4" width="25.5454545454545" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -2947,39 +2931,103 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
-      <c r="B2" t="s">
+    <row r="2" s="2" customFormat="1" spans="2:2">
+      <c r="B2" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2994,12 +3042,13 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="4" max="4" width="16.9083333333333" customWidth="1"/>
+    <col min="1" max="1" width="13.7272727272727" customWidth="1"/>
+    <col min="2" max="2" width="19.7272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -3017,42 +3066,34 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>95</v>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -3064,16 +3105,17 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="4" max="4" width="15.0916666666667" customWidth="1"/>
+    <col min="1" max="1" width="21.4545454545455" customWidth="1"/>
+    <col min="2" max="2" width="20.8181818181818" customWidth="1"/>
+    <col min="4" max="4" width="36.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -3090,42 +3132,50 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="2:3">
-      <c r="B2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="2:4">
-      <c r="B3" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="2:4">
-      <c r="B4" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>126</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/后台表.xlsx
+++ b/后台表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" tabRatio="799" activeTab="4"/>
+    <workbookView windowWidth="21600" windowHeight="9840" tabRatio="799" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="167">
   <si>
     <t>数据项</t>
   </si>
@@ -325,6 +325,12 @@
   </si>
   <si>
     <t>初始值为0，前端操作数量</t>
+  </si>
+  <si>
+    <t>球友上限</t>
+  </si>
+  <si>
+    <t>ballLimit</t>
   </si>
   <si>
     <t>ballComments</t>
@@ -534,9 +540,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -555,10 +561,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -569,17 +576,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -591,15 +592,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -615,15 +609,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -637,9 +637,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -661,11 +690,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -675,29 +704,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -714,7 +720,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,7 +744,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,13 +798,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,49 +852,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -816,7 +870,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,19 +882,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,49 +894,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,57 +933,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1000,8 +956,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1020,6 +1006,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1028,10 +1034,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1040,144 +1046,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1511,12 +1514,12 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="12.6363636363636" customWidth="1"/>
-    <col min="2" max="2" width="14.1818181818182" customWidth="1"/>
-    <col min="3" max="3" width="12.7272727272727" customWidth="1"/>
-    <col min="4" max="4" width="51.1818181818182" customWidth="1"/>
+    <col min="1" max="1" width="12.6333333333333" customWidth="1"/>
+    <col min="2" max="2" width="14.1833333333333" customWidth="1"/>
+    <col min="3" max="3" width="12.725" customWidth="1"/>
+    <col min="4" max="4" width="51.1833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -1603,7 +1606,7 @@
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
@@ -1614,7 +1617,7 @@
       <c r="A9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1622,7 +1625,7 @@
       <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C10" t="s">
@@ -1633,7 +1636,7 @@
       <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C11" t="s">
@@ -1644,7 +1647,7 @@
       <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C12" t="s">
@@ -1655,7 +1658,7 @@
       <c r="A13" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C13" t="s">
@@ -1669,7 +1672,7 @@
       <c r="A14" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C14" t="s">
@@ -1680,7 +1683,7 @@
       <c r="A15" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C15" t="s">
@@ -1710,9 +1713,9 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="4" max="4" width="16.9090909090909" customWidth="1"/>
+    <col min="4" max="4" width="16.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -1731,10 +1734,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -1742,30 +1745,30 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1783,10 +1786,10 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="4" max="4" width="15.0909090909091" customWidth="1"/>
+    <col min="4" max="4" width="15.0916666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -1805,7 +1808,7 @@
     </row>
     <row r="2" s="2" customFormat="1" spans="2:3">
       <c r="B2" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -1813,32 +1816,32 @@
     </row>
     <row r="3" s="2" customFormat="1" spans="2:4">
       <c r="B3" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="2:4">
       <c r="B4" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1856,11 +1859,11 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="29.4545454545455" customWidth="1"/>
-    <col min="3" max="3" width="18.8181818181818" customWidth="1"/>
-    <col min="4" max="4" width="30.1818181818182" customWidth="1"/>
+    <col min="1" max="1" width="29.4583333333333" customWidth="1"/>
+    <col min="3" max="3" width="18.8166666666667" customWidth="1"/>
+    <col min="4" max="4" width="30.1833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -1879,12 +1882,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:3">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
@@ -1892,7 +1895,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C4" t="s">
         <v>56</v>
@@ -1900,7 +1903,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -1921,12 +1924,12 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="11.2727272727273" customWidth="1"/>
-    <col min="2" max="2" width="22.1818181818182" customWidth="1"/>
-    <col min="3" max="3" width="15.3636363636364" customWidth="1"/>
-    <col min="4" max="4" width="23.1818181818182" customWidth="1"/>
+    <col min="1" max="1" width="11.275" customWidth="1"/>
+    <col min="2" max="2" width="22.1833333333333" customWidth="1"/>
+    <col min="3" max="3" width="15.3666666666667" customWidth="1"/>
+    <col min="4" max="4" width="23.1833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -1945,7 +1948,7 @@
     </row>
     <row r="2" s="2" customFormat="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -1953,7 +1956,7 @@
     </row>
     <row r="3" s="2" customFormat="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>56</v>
@@ -1961,7 +1964,7 @@
     </row>
     <row r="4" s="2" customFormat="1" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -1977,10 +1980,10 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1998,10 +2001,10 @@
       <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="16.3636363636364" customWidth="1"/>
-    <col min="2" max="2" width="25.8181818181818" customWidth="1"/>
+    <col min="1" max="1" width="16.3666666666667" customWidth="1"/>
+    <col min="2" max="2" width="25.8166666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -2020,27 +2023,27 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2058,11 +2061,11 @@
       <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="15.1818181818182" customWidth="1"/>
-    <col min="2" max="2" width="23.1818181818182" customWidth="1"/>
-    <col min="4" max="4" width="25.2727272727273" customWidth="1"/>
+    <col min="1" max="1" width="15.1833333333333" customWidth="1"/>
+    <col min="2" max="2" width="23.1833333333333" customWidth="1"/>
+    <col min="4" max="4" width="25.275" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -2081,7 +2084,7 @@
     </row>
     <row r="2" s="2" customFormat="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -2089,7 +2092,7 @@
     </row>
     <row r="3" s="2" customFormat="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>56</v>
@@ -2097,7 +2100,7 @@
     </row>
     <row r="4" s="2" customFormat="1" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -2113,10 +2116,10 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2134,11 +2137,11 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="22.3636363636364" customWidth="1"/>
-    <col min="3" max="3" width="23.3636363636364" customWidth="1"/>
-    <col min="4" max="4" width="32.9090909090909" customWidth="1"/>
+    <col min="1" max="1" width="22.3666666666667" customWidth="1"/>
+    <col min="3" max="3" width="23.3666666666667" customWidth="1"/>
+    <col min="4" max="4" width="32.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -2157,27 +2160,27 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2195,12 +2198,12 @@
       <selection activeCell="A1" sqref="$A1:$XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="14.9090909090909" customWidth="1"/>
-    <col min="2" max="2" width="13.2727272727273" customWidth="1"/>
-    <col min="3" max="3" width="25.3636363636364" customWidth="1"/>
-    <col min="4" max="4" width="35.2727272727273" customWidth="1"/>
+    <col min="1" max="1" width="14.9083333333333" customWidth="1"/>
+    <col min="2" max="2" width="13.275" customWidth="1"/>
+    <col min="3" max="3" width="25.3666666666667" customWidth="1"/>
+    <col min="4" max="4" width="35.275" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -2219,7 +2222,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -2233,15 +2236,15 @@
         <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2259,12 +2262,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="17.5454545454545" customWidth="1"/>
-    <col min="2" max="2" width="16.8181818181818" customWidth="1"/>
-    <col min="3" max="3" width="16.6363636363636" customWidth="1"/>
-    <col min="4" max="4" width="19.2727272727273" customWidth="1"/>
+    <col min="1" max="1" width="17.5416666666667" customWidth="1"/>
+    <col min="2" max="2" width="16.8166666666667" customWidth="1"/>
+    <col min="3" max="3" width="16.6333333333333" customWidth="1"/>
+    <col min="4" max="4" width="19.275" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -2283,7 +2286,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -2291,7 +2294,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -2299,7 +2302,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -2307,13 +2310,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2331,12 +2334,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="19.6363636363636" customWidth="1"/>
-    <col min="2" max="2" width="37.8181818181818" customWidth="1"/>
-    <col min="3" max="3" width="12.5454545454545" customWidth="1"/>
-    <col min="4" max="4" width="19.0909090909091" customWidth="1"/>
+    <col min="1" max="1" width="19.6333333333333" customWidth="1"/>
+    <col min="2" max="2" width="37.8166666666667" customWidth="1"/>
+    <col min="3" max="3" width="12.5416666666667" customWidth="1"/>
+    <col min="4" max="4" width="19.0916666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -2469,12 +2472,12 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="16.2727272727273" customWidth="1"/>
-    <col min="2" max="2" width="16.6363636363636" customWidth="1"/>
-    <col min="3" max="3" width="15.5454545454545" customWidth="1"/>
-    <col min="4" max="4" width="17.5454545454545" customWidth="1"/>
+    <col min="1" max="1" width="16.275" customWidth="1"/>
+    <col min="2" max="2" width="16.6333333333333" customWidth="1"/>
+    <col min="3" max="3" width="15.5416666666667" customWidth="1"/>
+    <col min="4" max="4" width="17.5416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -2603,14 +2606,14 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="18.4545454545455" customWidth="1"/>
-    <col min="2" max="2" width="17.9090909090909" customWidth="1"/>
-    <col min="3" max="3" width="13.9090909090909" customWidth="1"/>
+    <col min="1" max="1" width="18.4583333333333" customWidth="1"/>
+    <col min="2" max="2" width="17.9083333333333" customWidth="1"/>
+    <col min="3" max="3" width="13.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -2718,17 +2721,17 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="14.2727272727273" customWidth="1"/>
-    <col min="2" max="2" width="17.7272727272727" customWidth="1"/>
-    <col min="4" max="4" width="25.6363636363636" customWidth="1"/>
+    <col min="1" max="1" width="14.275" customWidth="1"/>
+    <col min="2" max="2" width="17.725" customWidth="1"/>
+    <col min="4" max="4" width="25.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -2745,95 +2748,106 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" spans="1:3">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="2" customFormat="1" spans="1:3">
+      <c r="A2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:3">
+      <c r="A3" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:3">
-      <c r="A4" s="3" t="s">
+    <row r="4" s="2" customFormat="1" spans="1:3">
+      <c r="A4" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" spans="1:3">
-      <c r="A5" s="3" t="s">
+    <row r="5" s="2" customFormat="1" spans="1:3">
+      <c r="A5" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" spans="1:4">
-      <c r="A6" s="3" t="s">
+    <row r="6" s="2" customFormat="1" spans="1:4">
+      <c r="A6" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:3">
-      <c r="A7" s="3" t="s">
+    <row r="7" s="2" customFormat="1" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:3">
+      <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:4">
-      <c r="A8" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="3" t="s">
+    <row r="9" s="2" customFormat="1" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2848,15 +2862,15 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="21.1818181818182" customWidth="1"/>
-    <col min="2" max="2" width="15.1818181818182" customWidth="1"/>
+    <col min="1" max="1" width="21.1833333333333" customWidth="1"/>
+    <col min="2" max="2" width="15.1833333333333" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="16.3636363636364" customWidth="1"/>
+    <col min="4" max="4" width="16.3666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -2875,7 +2889,7 @@
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2888,7 +2902,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -2906,15 +2920,15 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="16.1818181818182" customWidth="1"/>
-    <col min="2" max="2" width="21.0909090909091" customWidth="1"/>
-    <col min="3" max="3" width="16.6363636363636" customWidth="1"/>
-    <col min="4" max="4" width="25.5454545454545" customWidth="1"/>
+    <col min="1" max="1" width="16.1833333333333" customWidth="1"/>
+    <col min="2" max="2" width="21.0916666666667" customWidth="1"/>
+    <col min="3" max="3" width="16.6333333333333" customWidth="1"/>
+    <col min="4" max="4" width="25.5416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -2933,15 +2947,15 @@
     </row>
     <row r="2" s="2" customFormat="1" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>32</v>
@@ -2949,10 +2963,10 @@
     </row>
     <row r="4" s="2" customFormat="1" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>32</v>
@@ -2960,10 +2974,10 @@
     </row>
     <row r="5" s="2" customFormat="1" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>56</v>
@@ -2971,10 +2985,10 @@
     </row>
     <row r="6" s="2" customFormat="1" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>32</v>
@@ -2982,10 +2996,10 @@
     </row>
     <row r="7" s="2" customFormat="1" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>21</v>
@@ -2996,10 +3010,10 @@
     </row>
     <row r="8" s="2" customFormat="1" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>21</v>
@@ -3010,10 +3024,10 @@
     </row>
     <row r="9" s="2" customFormat="1" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>21</v>
@@ -3027,7 +3041,7 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3045,10 +3059,10 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="13.7272727272727" customWidth="1"/>
-    <col min="2" max="2" width="19.7272727272727" customWidth="1"/>
+    <col min="1" max="1" width="13.725" customWidth="1"/>
+    <col min="2" max="2" width="19.725" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -3066,31 +3080,31 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>32</v>
@@ -3107,15 +3121,15 @@
   <sheetPr/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="21.4545454545455" customWidth="1"/>
-    <col min="2" max="2" width="20.8181818181818" customWidth="1"/>
-    <col min="4" max="4" width="36.1818181818182" customWidth="1"/>
+    <col min="1" max="1" width="21.4583333333333" customWidth="1"/>
+    <col min="2" max="2" width="20.8166666666667" customWidth="1"/>
+    <col min="4" max="4" width="36.1833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -3134,23 +3148,23 @@
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
         <v>32</v>
@@ -3158,10 +3172,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C5" t="s">
         <v>56</v>
@@ -3169,10 +3183,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>

--- a/后台表.xlsx
+++ b/后台表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9840" tabRatio="799" activeTab="8"/>
+    <workbookView windowWidth="19200" windowHeight="7070" tabRatio="799" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="168">
   <si>
     <t>数据项</t>
   </si>
@@ -337,6 +337,9 @@
   </si>
   <si>
     <t>组织者</t>
+  </si>
+  <si>
+    <t>ballCreater</t>
   </si>
   <si>
     <t>存放userid</t>
@@ -539,10 +542,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -561,26 +564,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -609,21 +611,59 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -637,46 +677,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -720,13 +723,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,43 +867,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -786,121 +903,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,6 +928,26 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -953,11 +976,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -973,21 +1002,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1009,17 +1023,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1034,10 +1037,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1046,16 +1049,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1067,16 +1070,16 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1085,94 +1088,94 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1514,12 +1517,12 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="12.6333333333333" customWidth="1"/>
-    <col min="2" max="2" width="14.1833333333333" customWidth="1"/>
-    <col min="3" max="3" width="12.725" customWidth="1"/>
-    <col min="4" max="4" width="51.1833333333333" customWidth="1"/>
+    <col min="1" max="1" width="12.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="14.1818181818182" customWidth="1"/>
+    <col min="3" max="3" width="12.7272727272727" customWidth="1"/>
+    <col min="4" max="4" width="51.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -1713,9 +1716,9 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="4" max="4" width="16.9083333333333" customWidth="1"/>
+    <col min="4" max="4" width="16.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -1734,10 +1737,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -1745,30 +1748,30 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1786,10 +1789,10 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="4" max="4" width="15.0916666666667" customWidth="1"/>
+    <col min="4" max="4" width="15.0909090909091" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -1808,7 +1811,7 @@
     </row>
     <row r="2" s="2" customFormat="1" spans="2:3">
       <c r="B2" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -1816,32 +1819,32 @@
     </row>
     <row r="3" s="2" customFormat="1" spans="2:4">
       <c r="B3" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="2:4">
       <c r="B4" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1859,11 +1862,11 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="29.4583333333333" customWidth="1"/>
-    <col min="3" max="3" width="18.8166666666667" customWidth="1"/>
-    <col min="4" max="4" width="30.1833333333333" customWidth="1"/>
+    <col min="1" max="1" width="29.4545454545455" customWidth="1"/>
+    <col min="3" max="3" width="18.8181818181818" customWidth="1"/>
+    <col min="4" max="4" width="30.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -1882,12 +1885,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:3">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
@@ -1895,7 +1898,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C4" t="s">
         <v>56</v>
@@ -1903,7 +1906,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -1924,12 +1927,12 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="11.275" customWidth="1"/>
-    <col min="2" max="2" width="22.1833333333333" customWidth="1"/>
-    <col min="3" max="3" width="15.3666666666667" customWidth="1"/>
-    <col min="4" max="4" width="23.1833333333333" customWidth="1"/>
+    <col min="1" max="1" width="11.2727272727273" customWidth="1"/>
+    <col min="2" max="2" width="22.1818181818182" customWidth="1"/>
+    <col min="3" max="3" width="15.3636363636364" customWidth="1"/>
+    <col min="4" max="4" width="23.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -1948,7 +1951,7 @@
     </row>
     <row r="2" s="2" customFormat="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -1956,7 +1959,7 @@
     </row>
     <row r="3" s="2" customFormat="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>56</v>
@@ -1964,7 +1967,7 @@
     </row>
     <row r="4" s="2" customFormat="1" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -1980,10 +1983,10 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2001,10 +2004,10 @@
       <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="16.3666666666667" customWidth="1"/>
-    <col min="2" max="2" width="25.8166666666667" customWidth="1"/>
+    <col min="1" max="1" width="16.3636363636364" customWidth="1"/>
+    <col min="2" max="2" width="25.8181818181818" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -2023,27 +2026,27 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2061,11 +2064,11 @@
       <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="15.1833333333333" customWidth="1"/>
-    <col min="2" max="2" width="23.1833333333333" customWidth="1"/>
-    <col min="4" max="4" width="25.275" customWidth="1"/>
+    <col min="1" max="1" width="15.1818181818182" customWidth="1"/>
+    <col min="2" max="2" width="23.1818181818182" customWidth="1"/>
+    <col min="4" max="4" width="25.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -2084,7 +2087,7 @@
     </row>
     <row r="2" s="2" customFormat="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -2092,7 +2095,7 @@
     </row>
     <row r="3" s="2" customFormat="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>56</v>
@@ -2100,7 +2103,7 @@
     </row>
     <row r="4" s="2" customFormat="1" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -2116,10 +2119,10 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -2137,11 +2140,11 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="22.3666666666667" customWidth="1"/>
-    <col min="3" max="3" width="23.3666666666667" customWidth="1"/>
-    <col min="4" max="4" width="32.9083333333333" customWidth="1"/>
+    <col min="1" max="1" width="22.3636363636364" customWidth="1"/>
+    <col min="3" max="3" width="23.3636363636364" customWidth="1"/>
+    <col min="4" max="4" width="32.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -2160,27 +2163,27 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2198,12 +2201,12 @@
       <selection activeCell="A1" sqref="$A1:$XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="14.9083333333333" customWidth="1"/>
-    <col min="2" max="2" width="13.275" customWidth="1"/>
-    <col min="3" max="3" width="25.3666666666667" customWidth="1"/>
-    <col min="4" max="4" width="35.275" customWidth="1"/>
+    <col min="1" max="1" width="14.9090909090909" customWidth="1"/>
+    <col min="2" max="2" width="13.2727272727273" customWidth="1"/>
+    <col min="3" max="3" width="25.3636363636364" customWidth="1"/>
+    <col min="4" max="4" width="35.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -2222,7 +2225,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -2236,15 +2239,15 @@
         <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2262,12 +2265,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="17.5416666666667" customWidth="1"/>
-    <col min="2" max="2" width="16.8166666666667" customWidth="1"/>
-    <col min="3" max="3" width="16.6333333333333" customWidth="1"/>
-    <col min="4" max="4" width="19.275" customWidth="1"/>
+    <col min="1" max="1" width="17.5454545454545" customWidth="1"/>
+    <col min="2" max="2" width="16.8181818181818" customWidth="1"/>
+    <col min="3" max="3" width="16.6363636363636" customWidth="1"/>
+    <col min="4" max="4" width="19.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -2286,7 +2289,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -2294,7 +2297,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -2302,7 +2305,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -2310,13 +2313,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2331,15 +2334,15 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="19.6333333333333" customWidth="1"/>
-    <col min="2" max="2" width="37.8166666666667" customWidth="1"/>
-    <col min="3" max="3" width="12.5416666666667" customWidth="1"/>
-    <col min="4" max="4" width="19.0916666666667" customWidth="1"/>
+    <col min="1" max="1" width="19.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="37.8181818181818" customWidth="1"/>
+    <col min="3" max="3" width="12.5454545454545" customWidth="1"/>
+    <col min="4" max="4" width="19.0909090909091" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -2472,12 +2475,12 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="16.275" customWidth="1"/>
-    <col min="2" max="2" width="16.6333333333333" customWidth="1"/>
-    <col min="3" max="3" width="15.5416666666667" customWidth="1"/>
-    <col min="4" max="4" width="17.5416666666667" customWidth="1"/>
+    <col min="1" max="1" width="16.2727272727273" customWidth="1"/>
+    <col min="2" max="2" width="16.6363636363636" customWidth="1"/>
+    <col min="3" max="3" width="15.5454545454545" customWidth="1"/>
+    <col min="4" max="4" width="17.5454545454545" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -2609,11 +2612,11 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="18.4583333333333" customWidth="1"/>
-    <col min="2" max="2" width="17.9083333333333" customWidth="1"/>
-    <col min="3" max="3" width="13.9083333333333" customWidth="1"/>
+    <col min="1" max="1" width="18.4545454545455" customWidth="1"/>
+    <col min="2" max="2" width="17.9090909090909" customWidth="1"/>
+    <col min="3" max="3" width="13.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -2723,15 +2726,15 @@
   <sheetPr/>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="14.275" customWidth="1"/>
-    <col min="2" max="2" width="17.725" customWidth="1"/>
-    <col min="4" max="4" width="25.6333333333333" customWidth="1"/>
+    <col min="1" max="1" width="14.2727272727273" customWidth="1"/>
+    <col min="2" max="2" width="17.7272727272727" customWidth="1"/>
+    <col min="4" max="4" width="25.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -2833,21 +2836,21 @@
         <v>101</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2865,12 +2868,12 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="21.1833333333333" customWidth="1"/>
-    <col min="2" max="2" width="15.1833333333333" customWidth="1"/>
+    <col min="1" max="1" width="21.1818181818182" customWidth="1"/>
+    <col min="2" max="2" width="15.1818181818182" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="16.3666666666667" customWidth="1"/>
+    <col min="4" max="4" width="16.3636363636364" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -2889,7 +2892,7 @@
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2902,7 +2905,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -2923,12 +2926,12 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="16.1833333333333" customWidth="1"/>
-    <col min="2" max="2" width="21.0916666666667" customWidth="1"/>
-    <col min="3" max="3" width="16.6333333333333" customWidth="1"/>
-    <col min="4" max="4" width="25.5416666666667" customWidth="1"/>
+    <col min="1" max="1" width="16.1818181818182" customWidth="1"/>
+    <col min="2" max="2" width="21.0909090909091" customWidth="1"/>
+    <col min="3" max="3" width="16.6363636363636" customWidth="1"/>
+    <col min="4" max="4" width="25.5454545454545" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -2947,15 +2950,15 @@
     </row>
     <row r="2" s="2" customFormat="1" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>32</v>
@@ -2963,10 +2966,10 @@
     </row>
     <row r="4" s="2" customFormat="1" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>32</v>
@@ -2974,10 +2977,10 @@
     </row>
     <row r="5" s="2" customFormat="1" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>56</v>
@@ -2985,10 +2988,10 @@
     </row>
     <row r="6" s="2" customFormat="1" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>32</v>
@@ -2996,10 +2999,10 @@
     </row>
     <row r="7" s="2" customFormat="1" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>21</v>
@@ -3010,10 +3013,10 @@
     </row>
     <row r="8" s="2" customFormat="1" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>21</v>
@@ -3024,10 +3027,10 @@
     </row>
     <row r="9" s="2" customFormat="1" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>21</v>
@@ -3041,7 +3044,7 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3059,10 +3062,10 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="13.725" customWidth="1"/>
-    <col min="2" max="2" width="19.725" customWidth="1"/>
+    <col min="1" max="1" width="13.7272727272727" customWidth="1"/>
+    <col min="2" max="2" width="19.7272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -3082,7 +3085,7 @@
     <row r="2" spans="1:3">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -3090,7 +3093,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
@@ -3101,10 +3104,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>32</v>
@@ -3121,15 +3124,15 @@
   <sheetPr/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="21.4583333333333" customWidth="1"/>
-    <col min="2" max="2" width="20.8166666666667" customWidth="1"/>
-    <col min="4" max="4" width="36.1833333333333" customWidth="1"/>
+    <col min="1" max="1" width="21.4545454545455" customWidth="1"/>
+    <col min="2" max="2" width="20.8181818181818" customWidth="1"/>
+    <col min="4" max="4" width="36.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -3148,23 +3151,23 @@
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
         <v>32</v>
@@ -3172,10 +3175,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C5" t="s">
         <v>56</v>
@@ -3183,10 +3186,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>

--- a/后台表.xlsx
+++ b/后台表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" tabRatio="799" activeTab="4"/>
+    <workbookView windowWidth="20400" windowHeight="7860" tabRatio="799" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="167">
   <si>
     <t>数据项</t>
   </si>
@@ -376,9 +376,6 @@
   </si>
   <si>
     <t>楼主</t>
-  </si>
-  <si>
-    <t>userid</t>
   </si>
   <si>
     <t>评论数量</t>
@@ -564,8 +561,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -580,62 +599,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -648,17 +614,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -677,9 +636,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -701,8 +675,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -723,7 +720,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,25 +822,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,109 +888,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -879,31 +900,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -934,11 +931,35 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -952,11 +973,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -976,36 +1012,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1020,15 +1026,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1037,10 +1034,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1049,133 +1046,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1517,12 +1514,12 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="12.6363636363636" customWidth="1"/>
-    <col min="2" max="2" width="14.1818181818182" customWidth="1"/>
-    <col min="3" max="3" width="12.7272727272727" customWidth="1"/>
-    <col min="4" max="4" width="51.1818181818182" customWidth="1"/>
+    <col min="1" max="1" width="12.6333333333333" customWidth="1"/>
+    <col min="2" max="2" width="14.1833333333333" customWidth="1"/>
+    <col min="3" max="3" width="12.725" customWidth="1"/>
+    <col min="4" max="4" width="51.1833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -1716,9 +1713,9 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="4" max="4" width="16.9090909090909" customWidth="1"/>
+    <col min="4" max="4" width="16.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -1737,10 +1734,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" t="s">
         <v>132</v>
-      </c>
-      <c r="B2" t="s">
-        <v>133</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -1748,10 +1745,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" t="s">
         <v>134</v>
-      </c>
-      <c r="B3" t="s">
-        <v>135</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -1762,10 +1759,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" t="s">
         <v>136</v>
-      </c>
-      <c r="B4" t="s">
-        <v>137</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -1789,10 +1786,10 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="4" max="4" width="15.0909090909091" customWidth="1"/>
+    <col min="4" max="4" width="15.0916666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -1811,7 +1808,7 @@
     </row>
     <row r="2" s="2" customFormat="1" spans="2:3">
       <c r="B2" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -1819,32 +1816,32 @@
     </row>
     <row r="3" s="2" customFormat="1" spans="2:4">
       <c r="B3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="2:4">
       <c r="B4" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" t="s">
         <v>142</v>
-      </c>
-      <c r="B5" t="s">
-        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1862,11 +1859,11 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="29.4545454545455" customWidth="1"/>
-    <col min="3" max="3" width="18.8181818181818" customWidth="1"/>
-    <col min="4" max="4" width="30.1818181818182" customWidth="1"/>
+    <col min="1" max="1" width="29.4583333333333" customWidth="1"/>
+    <col min="3" max="3" width="18.8166666666667" customWidth="1"/>
+    <col min="4" max="4" width="30.1833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -1885,12 +1882,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:3">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
@@ -1898,7 +1895,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C4" t="s">
         <v>56</v>
@@ -1906,7 +1903,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -1927,12 +1924,12 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="11.2727272727273" customWidth="1"/>
-    <col min="2" max="2" width="22.1818181818182" customWidth="1"/>
-    <col min="3" max="3" width="15.3636363636364" customWidth="1"/>
-    <col min="4" max="4" width="23.1818181818182" customWidth="1"/>
+    <col min="1" max="1" width="11.275" customWidth="1"/>
+    <col min="2" max="2" width="22.1833333333333" customWidth="1"/>
+    <col min="3" max="3" width="15.3666666666667" customWidth="1"/>
+    <col min="4" max="4" width="23.1833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -1951,7 +1948,7 @@
     </row>
     <row r="2" s="2" customFormat="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -1959,7 +1956,7 @@
     </row>
     <row r="3" s="2" customFormat="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>56</v>
@@ -1967,7 +1964,7 @@
     </row>
     <row r="4" s="2" customFormat="1" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -1983,10 +1980,10 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" t="s">
         <v>151</v>
-      </c>
-      <c r="B6" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2004,10 +2001,10 @@
       <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="16.3636363636364" customWidth="1"/>
-    <col min="2" max="2" width="25.8181818181818" customWidth="1"/>
+    <col min="1" max="1" width="16.3666666666667" customWidth="1"/>
+    <col min="2" max="2" width="25.8166666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -2026,27 +2023,27 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2064,11 +2061,11 @@
       <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="15.1818181818182" customWidth="1"/>
-    <col min="2" max="2" width="23.1818181818182" customWidth="1"/>
-    <col min="4" max="4" width="25.2727272727273" customWidth="1"/>
+    <col min="1" max="1" width="15.1833333333333" customWidth="1"/>
+    <col min="2" max="2" width="23.1833333333333" customWidth="1"/>
+    <col min="4" max="4" width="25.275" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -2087,7 +2084,7 @@
     </row>
     <row r="2" s="2" customFormat="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -2095,7 +2092,7 @@
     </row>
     <row r="3" s="2" customFormat="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>56</v>
@@ -2103,7 +2100,7 @@
     </row>
     <row r="4" s="2" customFormat="1" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -2119,10 +2116,10 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2140,11 +2137,11 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="22.3636363636364" customWidth="1"/>
-    <col min="3" max="3" width="23.3636363636364" customWidth="1"/>
-    <col min="4" max="4" width="32.9090909090909" customWidth="1"/>
+    <col min="1" max="1" width="22.3666666666667" customWidth="1"/>
+    <col min="3" max="3" width="23.3666666666667" customWidth="1"/>
+    <col min="4" max="4" width="32.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -2163,27 +2160,27 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2201,12 +2198,12 @@
       <selection activeCell="A1" sqref="$A1:$XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="14.9090909090909" customWidth="1"/>
-    <col min="2" max="2" width="13.2727272727273" customWidth="1"/>
-    <col min="3" max="3" width="25.3636363636364" customWidth="1"/>
-    <col min="4" max="4" width="35.2727272727273" customWidth="1"/>
+    <col min="1" max="1" width="14.9083333333333" customWidth="1"/>
+    <col min="2" max="2" width="13.275" customWidth="1"/>
+    <col min="3" max="3" width="25.3666666666667" customWidth="1"/>
+    <col min="4" max="4" width="35.275" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -2225,7 +2222,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -2239,15 +2236,15 @@
         <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2265,12 +2262,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="17.5454545454545" customWidth="1"/>
-    <col min="2" max="2" width="16.8181818181818" customWidth="1"/>
-    <col min="3" max="3" width="16.6363636363636" customWidth="1"/>
-    <col min="4" max="4" width="19.2727272727273" customWidth="1"/>
+    <col min="1" max="1" width="17.5416666666667" customWidth="1"/>
+    <col min="2" max="2" width="16.8166666666667" customWidth="1"/>
+    <col min="3" max="3" width="16.6333333333333" customWidth="1"/>
+    <col min="4" max="4" width="19.275" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -2289,7 +2286,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -2297,7 +2294,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -2305,7 +2302,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -2313,13 +2310,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2337,12 +2334,12 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="19.6363636363636" customWidth="1"/>
-    <col min="2" max="2" width="37.8181818181818" customWidth="1"/>
-    <col min="3" max="3" width="12.5454545454545" customWidth="1"/>
-    <col min="4" max="4" width="19.0909090909091" customWidth="1"/>
+    <col min="1" max="1" width="19.6333333333333" customWidth="1"/>
+    <col min="2" max="2" width="37.8166666666667" customWidth="1"/>
+    <col min="3" max="3" width="12.5416666666667" customWidth="1"/>
+    <col min="4" max="4" width="19.0916666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -2475,12 +2472,12 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="16.2727272727273" customWidth="1"/>
-    <col min="2" max="2" width="16.6363636363636" customWidth="1"/>
-    <col min="3" max="3" width="15.5454545454545" customWidth="1"/>
-    <col min="4" max="4" width="17.5454545454545" customWidth="1"/>
+    <col min="1" max="1" width="16.275" customWidth="1"/>
+    <col min="2" max="2" width="16.6333333333333" customWidth="1"/>
+    <col min="3" max="3" width="15.5416666666667" customWidth="1"/>
+    <col min="4" max="4" width="17.5416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -2609,14 +2606,14 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="18.4545454545455" customWidth="1"/>
-    <col min="2" max="2" width="17.9090909090909" customWidth="1"/>
-    <col min="3" max="3" width="13.9090909090909" customWidth="1"/>
+    <col min="1" max="1" width="18.4583333333333" customWidth="1"/>
+    <col min="2" max="2" width="17.9083333333333" customWidth="1"/>
+    <col min="3" max="3" width="13.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -2726,15 +2723,15 @@
   <sheetPr/>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="14.2727272727273" customWidth="1"/>
-    <col min="2" max="2" width="17.7272727272727" customWidth="1"/>
-    <col min="4" max="4" width="25.6363636363636" customWidth="1"/>
+    <col min="1" max="1" width="14.275" customWidth="1"/>
+    <col min="2" max="2" width="17.725" customWidth="1"/>
+    <col min="4" max="4" width="25.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -2865,15 +2862,15 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="21.1818181818182" customWidth="1"/>
-    <col min="2" max="2" width="15.1818181818182" customWidth="1"/>
+    <col min="1" max="1" width="21.1833333333333" customWidth="1"/>
+    <col min="2" max="2" width="15.1833333333333" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="16.3636363636364" customWidth="1"/>
+    <col min="4" max="4" width="16.3666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -2923,15 +2920,15 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="16.1818181818182" customWidth="1"/>
-    <col min="2" max="2" width="21.0909090909091" customWidth="1"/>
-    <col min="3" max="3" width="16.6363636363636" customWidth="1"/>
-    <col min="4" max="4" width="25.5454545454545" customWidth="1"/>
+    <col min="1" max="1" width="16.1833333333333" customWidth="1"/>
+    <col min="2" max="2" width="21.0916666666667" customWidth="1"/>
+    <col min="3" max="3" width="16.6333333333333" customWidth="1"/>
+    <col min="4" max="4" width="25.5416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -2991,7 +2988,7 @@
         <v>114</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>32</v>
@@ -2999,10 +2996,10 @@
     </row>
     <row r="7" s="2" customFormat="1" spans="1:4">
       <c r="A7" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>21</v>
@@ -3013,10 +3010,10 @@
     </row>
     <row r="8" s="2" customFormat="1" spans="1:4">
       <c r="A8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>21</v>
@@ -3027,10 +3024,10 @@
     </row>
     <row r="9" s="2" customFormat="1" spans="1:4">
       <c r="A9" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>21</v>
@@ -3044,7 +3041,7 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3059,13 +3056,13 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="13.7272727272727" customWidth="1"/>
-    <col min="2" max="2" width="19.7272727272727" customWidth="1"/>
+    <col min="1" max="1" width="13.725" customWidth="1"/>
+    <col min="2" max="2" width="19.725" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -3085,7 +3082,7 @@
     <row r="2" spans="1:3">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -3093,7 +3090,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
@@ -3122,17 +3119,17 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="21.4545454545455" customWidth="1"/>
-    <col min="2" max="2" width="20.8181818181818" customWidth="1"/>
-    <col min="4" max="4" width="36.1818181818182" customWidth="1"/>
+    <col min="1" max="1" width="21.4583333333333" customWidth="1"/>
+    <col min="2" max="2" width="20.8166666666667" customWidth="1"/>
+    <col min="4" max="4" width="36.1833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -3151,47 +3148,55 @@
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" t="s">
         <v>130</v>
       </c>
-      <c r="B6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>32</v>
       </c>
     </row>

--- a/后台表.xlsx
+++ b/后台表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="7860" tabRatio="799" activeTab="8"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="799" firstSheet="11" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -23,15 +23,16 @@
     <sheet name="orderitem" sheetId="17" r:id="rId14"/>
     <sheet name="charts" sheetId="5" r:id="rId15"/>
     <sheet name="chartitem" sheetId="18" r:id="rId16"/>
-    <sheet name="store" sheetId="9" r:id="rId17"/>
+    <sheet name="stores" sheetId="9" r:id="rId17"/>
     <sheet name="items" sheetId="10" r:id="rId18"/>
+    <sheet name="evaluate" sheetId="21" r:id="rId19"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="201">
   <si>
     <t>数据项</t>
   </si>
@@ -495,7 +496,10 @@
     <t>orderid</t>
   </si>
   <si>
-    <t>itemid</t>
+    <t>itemId</t>
+  </si>
+  <si>
+    <t>itemName</t>
   </si>
   <si>
     <t>price</t>
@@ -507,31 +511,130 @@
     <t>chartId</t>
   </si>
   <si>
+    <t>chartTime</t>
+  </si>
+  <si>
+    <t>chartitem表查询</t>
+  </si>
+  <si>
+    <t>chartitemid</t>
+  </si>
+  <si>
+    <t>chartid</t>
+  </si>
+  <si>
     <t>storeId</t>
   </si>
   <si>
-    <t>chartitem表查询</t>
-  </si>
-  <si>
-    <t>chartitemid</t>
-  </si>
-  <si>
-    <t>chartid</t>
-  </si>
-  <si>
     <t>店主，对应userId</t>
   </si>
   <si>
+    <t>storeName</t>
+  </si>
+  <si>
+    <t>storePic</t>
+  </si>
+  <si>
+    <t>店家LOGO</t>
+  </si>
+  <si>
+    <t>storePoster</t>
+  </si>
+  <si>
+    <t>宣传海报</t>
+  </si>
+  <si>
     <t>items表查询</t>
   </si>
   <si>
-    <t>itemId</t>
-  </si>
-  <si>
-    <t>content</t>
+    <t>商品名</t>
+  </si>
+  <si>
+    <t>priceOld</t>
+  </si>
+  <si>
+    <t>原价</t>
+  </si>
+  <si>
+    <t>priceNew</t>
+  </si>
+  <si>
+    <t>促销价</t>
+  </si>
+  <si>
+    <t>itemContent</t>
   </si>
   <si>
     <t>商品描述</t>
+  </si>
+  <si>
+    <t>itemPic</t>
+  </si>
+  <si>
+    <t>商品图片</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>商品类别</t>
+  </si>
+  <si>
+    <t>itemTime</t>
+  </si>
+  <si>
+    <t>上架时间</t>
+  </si>
+  <si>
+    <t>evaluateQuantity</t>
+  </si>
+  <si>
+    <t>评价数量</t>
+  </si>
+  <si>
+    <t>sum查询evaluate表</t>
+  </si>
+  <si>
+    <t>salesQuantity</t>
+  </si>
+  <si>
+    <t>销量</t>
+  </si>
+  <si>
+    <t>sum查询order表</t>
+  </si>
+  <si>
+    <t>evaluate</t>
+  </si>
+  <si>
+    <t>evaluate表查询</t>
+  </si>
+  <si>
+    <t>evaluateId</t>
+  </si>
+  <si>
+    <t>查询</t>
+  </si>
+  <si>
+    <t>evaluateTime</t>
+  </si>
+  <si>
+    <t>评价时间</t>
+  </si>
+  <si>
+    <t>evaluateContent</t>
+  </si>
+  <si>
+    <t>评价内容</t>
+  </si>
+  <si>
+    <t>评价人</t>
   </si>
 </sst>
 </file>
@@ -539,10 +642,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -558,6 +661,75 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -577,60 +749,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -659,9 +778,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -675,31 +801,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -720,55 +823,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,7 +835,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -798,7 +859,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,7 +883,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -822,55 +979,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -882,25 +1003,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -938,17 +1041,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -966,9 +1058,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -997,6 +1091,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1011,21 +1129,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1034,10 +1137,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1046,141 +1149,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1536,69 +1642,69 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:3">
-      <c r="A2" s="2" t="s">
+    <row r="2" s="3" customFormat="1" spans="1:3">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:3">
-      <c r="A3" s="2" t="s">
+    <row r="3" s="3" customFormat="1" spans="1:3">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:3">
-      <c r="A4" s="2" t="s">
+    <row r="4" s="3" customFormat="1" spans="1:3">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:3">
-      <c r="A5" s="2" t="s">
+    <row r="5" s="3" customFormat="1" spans="1:3">
+      <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:3">
-      <c r="A6" s="2" t="s">
+    <row r="6" s="3" customFormat="1" spans="1:3">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:3">
-      <c r="A7" s="2" t="s">
+    <row r="7" s="3" customFormat="1" spans="1:3">
+      <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1606,7 +1712,7 @@
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
@@ -1617,7 +1723,7 @@
       <c r="A9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1625,7 +1731,7 @@
       <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C10" t="s">
@@ -1636,7 +1742,7 @@
       <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C11" t="s">
@@ -1647,7 +1753,7 @@
       <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C12" t="s">
@@ -1658,7 +1764,7 @@
       <c r="A13" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C13" t="s">
@@ -1672,7 +1778,7 @@
       <c r="A14" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C14" t="s">
@@ -1683,7 +1789,7 @@
       <c r="A15" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C15" t="s">
@@ -1806,33 +1912,33 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="2:3">
-      <c r="B2" s="2" t="s">
+    <row r="2" s="3" customFormat="1" spans="2:3">
+      <c r="B2" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="2:4">
-      <c r="B3" s="2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="2:4">
+      <c r="B3" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="2:4">
-      <c r="B4" s="2" t="s">
+    <row r="4" s="3" customFormat="1" spans="2:4">
+      <c r="B4" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1921,7 +2027,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
@@ -1946,35 +2052,35 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:3">
-      <c r="A2" s="2" t="s">
+    <row r="2" s="3" customFormat="1" spans="1:3">
+      <c r="A2" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="1:3">
-      <c r="A3" s="2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:3">
+      <c r="A3" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:3">
-      <c r="A4" s="2" t="s">
+    <row r="4" s="3" customFormat="1" spans="1:3">
+      <c r="A4" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="1:3">
-      <c r="A5" s="2" t="s">
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="1" spans="1:3">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1995,13 +2101,13 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="16.3666666666667" customWidth="1"/>
     <col min="2" max="2" width="25.8166666666667" customWidth="1"/>
@@ -2044,6 +2150,11 @@
     <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2058,7 +2169,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
@@ -2082,35 +2193,35 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="1:3">
-      <c r="A3" s="2" t="s">
+    <row r="2" s="3" customFormat="1" spans="1:3">
+      <c r="A2" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:3">
-      <c r="A4" s="2" t="s">
+    <row r="4" s="3" customFormat="1" spans="1:3">
+      <c r="A4" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="1:3">
-      <c r="A5" s="2" t="s">
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="1" spans="1:3">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2119,7 +2230,7 @@
         <v>150</v>
       </c>
       <c r="B6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -2131,13 +2242,13 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="22.3666666666667" customWidth="1"/>
     <col min="3" max="3" width="23.3666666666667" customWidth="1"/>
@@ -2160,12 +2271,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -2181,6 +2292,11 @@
     <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2192,13 +2308,13 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="14.9083333333333" customWidth="1"/>
     <col min="2" max="2" width="13.275" customWidth="1"/>
@@ -2220,31 +2336,52 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+    <row r="2" s="2" customFormat="1" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:4">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="D3" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:1">
+      <c r="A4" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>150</v>
       </c>
-      <c r="B4" t="s">
-        <v>163</v>
+      <c r="B7" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2256,13 +2393,172 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="17.5416666666667" customWidth="1"/>
+    <col min="2" max="2" width="16.8166666666667" customWidth="1"/>
+    <col min="3" max="3" width="18.75" customWidth="1"/>
+    <col min="4" max="4" width="19.275" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="17.5416666666667" customWidth="1"/>
     <col min="2" max="2" width="16.8166666666667" customWidth="1"/>
@@ -2284,39 +2580,54 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="2" s="2" customFormat="1" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D5" t="s">
-        <v>166</v>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2356,88 +2667,88 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="2:3">
-      <c r="B2" s="2" t="s">
+    <row r="2" s="3" customFormat="1" spans="2:3">
+      <c r="B2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="1:2">
-      <c r="A3" s="2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:2">
+      <c r="A3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:3">
-      <c r="A4" s="2" t="s">
+    <row r="4" s="3" customFormat="1" spans="1:3">
+      <c r="A4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:4">
-      <c r="A5" s="2" t="s">
+    <row r="5" s="3" customFormat="1" spans="1:4">
+      <c r="A5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:3">
-      <c r="A6" s="2" t="s">
+    <row r="6" s="3" customFormat="1" spans="1:3">
+      <c r="A6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" spans="1:3">
-      <c r="A7" s="2" t="s">
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" spans="1:3">
+      <c r="A7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:3">
-      <c r="A8" s="2" t="s">
+    <row r="8" s="3" customFormat="1" spans="1:3">
+      <c r="A8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:3">
-      <c r="A9" s="2" t="s">
+    <row r="9" s="3" customFormat="1" spans="1:3">
+      <c r="A9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2630,85 +2941,85 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="2:3">
-      <c r="B2" s="2" t="s">
+    <row r="2" s="3" customFormat="1" spans="2:3">
+      <c r="B2" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="1:2">
-      <c r="A3" s="2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:2">
+      <c r="A3" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:2">
-      <c r="A4" s="2" t="s">
+    <row r="4" s="3" customFormat="1" spans="1:2">
+      <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:3">
-      <c r="A5" s="2" t="s">
+    <row r="5" s="3" customFormat="1" spans="1:3">
+      <c r="A5" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="1:4">
-      <c r="A6" s="2" t="s">
+      <c r="C5" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" spans="1:4">
+      <c r="A6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:3">
-      <c r="A7" s="2" t="s">
+    <row r="7" s="3" customFormat="1" spans="1:3">
+      <c r="A7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" spans="1:3">
-      <c r="A8" s="2" t="s">
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="1" spans="1:3">
+      <c r="A8" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:3">
-      <c r="A9" s="2" t="s">
+    <row r="9" s="3" customFormat="1" spans="1:3">
+      <c r="A9" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2748,97 +3059,97 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:3">
-      <c r="A2" s="2" t="s">
+    <row r="2" s="3" customFormat="1" spans="1:3">
+      <c r="A2" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="1:3">
-      <c r="A3" s="2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:3">
+      <c r="A3" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:3">
-      <c r="A4" s="2" t="s">
+    <row r="4" s="3" customFormat="1" spans="1:3">
+      <c r="A4" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:3">
-      <c r="A5" s="2" t="s">
+    <row r="5" s="3" customFormat="1" spans="1:3">
+      <c r="A5" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:4">
-      <c r="A6" s="2" t="s">
+    <row r="6" s="3" customFormat="1" spans="1:4">
+      <c r="A6" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:3">
-      <c r="A7" s="2" t="s">
+    <row r="7" s="3" customFormat="1" spans="1:3">
+      <c r="A7" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" spans="1:3">
-      <c r="A8" s="2" t="s">
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="1" spans="1:3">
+      <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:4">
-      <c r="A9" s="2" t="s">
+    <row r="9" s="3" customFormat="1" spans="1:4">
+      <c r="A9" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2945,94 +3256,94 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="2:2">
-      <c r="B2" s="2" t="s">
+    <row r="2" s="3" customFormat="1" spans="2:2">
+      <c r="B2" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:3">
-      <c r="A3" s="2" t="s">
+    <row r="3" s="3" customFormat="1" spans="1:3">
+      <c r="A3" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:3">
-      <c r="A4" s="2" t="s">
+    <row r="4" s="3" customFormat="1" spans="1:3">
+      <c r="A4" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:3">
-      <c r="A5" s="2" t="s">
+    <row r="5" s="3" customFormat="1" spans="1:3">
+      <c r="A5" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:3">
-      <c r="A6" s="2" t="s">
+    <row r="6" s="3" customFormat="1" spans="1:3">
+      <c r="A6" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:4">
-      <c r="A7" s="2" t="s">
+    <row r="7" s="3" customFormat="1" spans="1:4">
+      <c r="A7" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:4">
-      <c r="A8" s="2" t="s">
+    <row r="8" s="3" customFormat="1" spans="1:4">
+      <c r="A8" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:4">
-      <c r="A9" s="2" t="s">
+    <row r="9" s="3" customFormat="1" spans="1:4">
+      <c r="A9" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3080,33 +3391,33 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3121,8 +3432,8 @@
   <sheetPr/>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>

--- a/后台表.xlsx
+++ b/后台表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="799" firstSheet="11" activeTab="15"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="799" firstSheet="11" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -580,7 +580,7 @@
     <t>性别</t>
   </si>
   <si>
-    <t>type</t>
+    <t>category</t>
   </si>
   <si>
     <t>商品类别</t>
@@ -672,7 +672,100 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -687,15 +780,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -709,83 +794,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -793,16 +801,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -823,19 +823,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -847,13 +841,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -871,7 +871,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,25 +913,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -913,79 +931,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1003,7 +949,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1028,6 +1028,45 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1067,50 +1106,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1137,156 +1137,153 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1642,69 +1639,69 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" spans="1:3">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="2" customFormat="1" spans="1:3">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:3">
-      <c r="A3" s="3" t="s">
+    <row r="3" s="2" customFormat="1" spans="1:3">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:3">
-      <c r="A4" s="3" t="s">
+    <row r="4" s="2" customFormat="1" spans="1:3">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" spans="1:3">
-      <c r="A5" s="3" t="s">
+    <row r="5" s="2" customFormat="1" spans="1:3">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" spans="1:3">
-      <c r="A6" s="3" t="s">
+    <row r="6" s="2" customFormat="1" spans="1:3">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:3">
-      <c r="A7" s="3" t="s">
+    <row r="7" s="2" customFormat="1" spans="1:3">
+      <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1712,7 +1709,7 @@
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
@@ -1723,7 +1720,7 @@
       <c r="A9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1731,7 +1728,7 @@
       <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C10" t="s">
@@ -1742,7 +1739,7 @@
       <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C11" t="s">
@@ -1753,7 +1750,7 @@
       <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C12" t="s">
@@ -1764,7 +1761,7 @@
       <c r="A13" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C13" t="s">
@@ -1778,7 +1775,7 @@
       <c r="A14" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C14" t="s">
@@ -1789,7 +1786,7 @@
       <c r="A15" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C15" t="s">
@@ -1912,33 +1909,33 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" spans="2:3">
-      <c r="B2" s="3" t="s">
+    <row r="2" s="2" customFormat="1" spans="2:3">
+      <c r="B2" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="2:4">
-      <c r="B3" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="2:4">
+      <c r="B3" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="2:4">
-      <c r="B4" s="3" t="s">
+    <row r="4" s="2" customFormat="1" spans="2:4">
+      <c r="B4" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2052,35 +2049,35 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" spans="1:3">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="2" customFormat="1" spans="1:3">
+      <c r="A2" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:3">
+      <c r="A3" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:3">
-      <c r="A4" s="3" t="s">
+    <row r="4" s="2" customFormat="1" spans="1:3">
+      <c r="A4" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" s="3" customFormat="1" spans="1:3">
-      <c r="A5" s="3" t="s">
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:3">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2193,35 +2190,35 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" spans="1:3">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="2" customFormat="1" spans="1:3">
+      <c r="A2" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:3">
+      <c r="A3" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:3">
-      <c r="A4" s="3" t="s">
+    <row r="4" s="2" customFormat="1" spans="1:3">
+      <c r="A4" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" s="3" customFormat="1" spans="1:3">
-      <c r="A5" s="3" t="s">
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:3">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2244,7 +2241,7 @@
   <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -2395,8 +2392,8 @@
   <sheetPr/>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2555,7 +2552,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
@@ -2584,7 +2581,6 @@
       <c r="A2" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
@@ -2667,88 +2663,88 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" spans="2:3">
-      <c r="B2" s="3" t="s">
+    <row r="2" s="2" customFormat="1" spans="2:3">
+      <c r="B2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:2">
-      <c r="A3" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:2">
+      <c r="A3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:3">
-      <c r="A4" s="3" t="s">
+    <row r="4" s="2" customFormat="1" spans="1:3">
+      <c r="A4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" spans="1:4">
-      <c r="A5" s="3" t="s">
+    <row r="5" s="2" customFormat="1" spans="1:4">
+      <c r="A5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" spans="1:3">
-      <c r="A6" s="3" t="s">
+    <row r="6" s="2" customFormat="1" spans="1:3">
+      <c r="A6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" s="3" customFormat="1" spans="1:3">
-      <c r="A7" s="3" t="s">
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:3">
+      <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:3">
-      <c r="A8" s="3" t="s">
+    <row r="8" s="2" customFormat="1" spans="1:3">
+      <c r="A8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:3">
-      <c r="A9" s="3" t="s">
+    <row r="9" s="2" customFormat="1" spans="1:3">
+      <c r="A9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2941,85 +2937,85 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" spans="2:3">
-      <c r="B2" s="3" t="s">
+    <row r="2" s="2" customFormat="1" spans="2:3">
+      <c r="B2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:2">
-      <c r="A3" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:2">
+      <c r="A3" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:2">
-      <c r="A4" s="3" t="s">
+    <row r="4" s="2" customFormat="1" spans="1:2">
+      <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" spans="1:3">
-      <c r="A5" s="3" t="s">
+    <row r="5" s="2" customFormat="1" spans="1:3">
+      <c r="A5" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" s="3" customFormat="1" spans="1:4">
-      <c r="A6" s="3" t="s">
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:4">
+      <c r="A6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:3">
-      <c r="A7" s="3" t="s">
+    <row r="7" s="2" customFormat="1" spans="1:3">
+      <c r="A7" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" s="3" customFormat="1" spans="1:3">
-      <c r="A8" s="3" t="s">
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:3">
+      <c r="A8" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:3">
-      <c r="A9" s="3" t="s">
+    <row r="9" s="2" customFormat="1" spans="1:3">
+      <c r="A9" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3059,97 +3055,97 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" spans="1:3">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="2" customFormat="1" spans="1:3">
+      <c r="A2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:3">
+      <c r="A3" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:3">
-      <c r="A4" s="3" t="s">
+    <row r="4" s="2" customFormat="1" spans="1:3">
+      <c r="A4" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" spans="1:3">
-      <c r="A5" s="3" t="s">
+    <row r="5" s="2" customFormat="1" spans="1:3">
+      <c r="A5" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" spans="1:4">
-      <c r="A6" s="3" t="s">
+    <row r="6" s="2" customFormat="1" spans="1:4">
+      <c r="A6" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:3">
-      <c r="A7" s="3" t="s">
+    <row r="7" s="2" customFormat="1" spans="1:3">
+      <c r="A7" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" s="3" customFormat="1" spans="1:3">
-      <c r="A8" s="3" t="s">
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:3">
+      <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:4">
-      <c r="A9" s="3" t="s">
+    <row r="9" s="2" customFormat="1" spans="1:4">
+      <c r="A9" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3256,94 +3252,94 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" spans="2:2">
-      <c r="B2" s="3" t="s">
+    <row r="2" s="2" customFormat="1" spans="2:2">
+      <c r="B2" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:3">
-      <c r="A3" s="3" t="s">
+    <row r="3" s="2" customFormat="1" spans="1:3">
+      <c r="A3" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:3">
-      <c r="A4" s="3" t="s">
+    <row r="4" s="2" customFormat="1" spans="1:3">
+      <c r="A4" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" spans="1:3">
-      <c r="A5" s="3" t="s">
+    <row r="5" s="2" customFormat="1" spans="1:3">
+      <c r="A5" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" spans="1:3">
-      <c r="A6" s="3" t="s">
+    <row r="6" s="2" customFormat="1" spans="1:3">
+      <c r="A6" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:4">
-      <c r="A7" s="3" t="s">
+    <row r="7" s="2" customFormat="1" spans="1:4">
+      <c r="A7" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:4">
-      <c r="A8" s="3" t="s">
+    <row r="8" s="2" customFormat="1" spans="1:4">
+      <c r="A8" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:4">
-      <c r="A9" s="3" t="s">
+    <row r="9" s="2" customFormat="1" spans="1:4">
+      <c r="A9" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3391,33 +3387,33 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/后台表.xlsx
+++ b/后台表.xlsx
@@ -4,35 +4,36 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="799" firstSheet="11" activeTab="17"/>
+    <workbookView windowWidth="28245" windowHeight="12465" tabRatio="799" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
     <sheet name="teams" sheetId="14" r:id="rId2"/>
-    <sheet name="matches" sheetId="12" r:id="rId3"/>
-    <sheet name="players" sheetId="16" r:id="rId4"/>
-    <sheet name="balls" sheetId="2" r:id="rId5"/>
-    <sheet name="joinBall" sheetId="20" r:id="rId6"/>
-    <sheet name="sites" sheetId="3" r:id="rId7"/>
-    <sheet name="marks" sheetId="19" r:id="rId8"/>
-    <sheet name="comments" sheetId="4" r:id="rId9"/>
-    <sheet name="friends" sheetId="7" r:id="rId10"/>
-    <sheet name="chats" sheetId="8" r:id="rId11"/>
-    <sheet name="chatcontent" sheetId="11" r:id="rId12"/>
-    <sheet name="orders" sheetId="6" r:id="rId13"/>
-    <sheet name="orderitem" sheetId="17" r:id="rId14"/>
-    <sheet name="charts" sheetId="5" r:id="rId15"/>
-    <sheet name="chartitem" sheetId="18" r:id="rId16"/>
-    <sheet name="stores" sheetId="9" r:id="rId17"/>
-    <sheet name="items" sheetId="10" r:id="rId18"/>
-    <sheet name="evaluate" sheetId="21" r:id="rId19"/>
+    <sheet name="rates" sheetId="22" r:id="rId3"/>
+    <sheet name="matches" sheetId="12" r:id="rId4"/>
+    <sheet name="players" sheetId="16" r:id="rId5"/>
+    <sheet name="balls" sheetId="2" r:id="rId6"/>
+    <sheet name="joinBall" sheetId="20" r:id="rId7"/>
+    <sheet name="sites" sheetId="3" r:id="rId8"/>
+    <sheet name="marks" sheetId="19" r:id="rId9"/>
+    <sheet name="comments" sheetId="4" r:id="rId10"/>
+    <sheet name="friends" sheetId="7" r:id="rId11"/>
+    <sheet name="chats" sheetId="8" r:id="rId12"/>
+    <sheet name="chatcontent" sheetId="11" r:id="rId13"/>
+    <sheet name="orders" sheetId="6" r:id="rId14"/>
+    <sheet name="orderitem" sheetId="17" r:id="rId15"/>
+    <sheet name="charts" sheetId="5" r:id="rId16"/>
+    <sheet name="chartitem" sheetId="18" r:id="rId17"/>
+    <sheet name="stores" sheetId="9" r:id="rId18"/>
+    <sheet name="items" sheetId="10" r:id="rId19"/>
+    <sheet name="evaluate" sheetId="21" r:id="rId20"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="203">
   <si>
     <t>数据项</t>
   </si>
@@ -178,43 +179,49 @@
     <t>nba/cba</t>
   </si>
   <si>
+    <t>教练</t>
+  </si>
+  <si>
+    <t>coach</t>
+  </si>
+  <si>
+    <t>分区</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>成立时间</t>
+  </si>
+  <si>
+    <t>teamTime</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>比赛历史</t>
+  </si>
+  <si>
+    <t>matches表查询</t>
+  </si>
+  <si>
+    <t>队员</t>
+  </si>
+  <si>
+    <t>players表查询</t>
+  </si>
+  <si>
     <t>排名</t>
   </si>
   <si>
+    <t>rates表查询</t>
+  </si>
+  <si>
+    <t>rateItemId</t>
+  </si>
+  <si>
     <t>rate</t>
-  </si>
-  <si>
-    <t>教练</t>
-  </si>
-  <si>
-    <t>coach</t>
-  </si>
-  <si>
-    <t>分区</t>
-  </si>
-  <si>
-    <t>area</t>
-  </si>
-  <si>
-    <t>成立时间</t>
-  </si>
-  <si>
-    <t>teamTime</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>比赛历史</t>
-  </si>
-  <si>
-    <t>matches表查询</t>
-  </si>
-  <si>
-    <t>队员</t>
-  </si>
-  <si>
-    <t>players表查询</t>
   </si>
   <si>
     <t>matchId</t>
@@ -672,14 +679,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -693,9 +700,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -719,7 +748,38 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -733,49 +793,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -786,23 +807,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -823,7 +830,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -835,115 +872,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -961,13 +902,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -979,31 +986,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1032,6 +1039,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1047,30 +1069,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1081,16 +1079,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1115,17 +1113,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1137,10 +1144,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1149,137 +1156,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1287,6 +1294,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1709,7 +1719,7 @@
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
@@ -1720,7 +1730,7 @@
       <c r="A9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1728,7 +1738,7 @@
       <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C10" t="s">
@@ -1739,7 +1749,7 @@
       <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C11" t="s">
@@ -1750,7 +1760,7 @@
       <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C12" t="s">
@@ -1761,7 +1771,7 @@
       <c r="A13" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C13" t="s">
@@ -1775,7 +1785,7 @@
       <c r="A14" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C14" t="s">
@@ -1786,7 +1796,7 @@
       <c r="A15" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C15" t="s">
@@ -1808,6 +1818,96 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="21.4583333333333" customWidth="1"/>
+    <col min="2" max="2" width="20.8166666666667" customWidth="1"/>
+    <col min="4" max="4" width="36.1833333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D4"/>
@@ -1837,10 +1937,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -1848,30 +1948,30 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1880,7 +1980,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D5"/>
@@ -1911,7 +2011,7 @@
     </row>
     <row r="2" s="2" customFormat="1" spans="2:3">
       <c r="B2" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -1919,32 +2019,32 @@
     </row>
     <row r="3" s="2" customFormat="1" spans="2:4">
       <c r="B3" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="2:4">
       <c r="B4" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1953,7 +2053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D5"/>
@@ -1985,12 +2085,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:3">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
@@ -1998,15 +2098,15 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -2018,7 +2118,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D6"/>
@@ -2051,7 +2151,7 @@
     </row>
     <row r="2" s="2" customFormat="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -2059,15 +2159,15 @@
     </row>
     <row r="3" s="2" customFormat="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -2083,10 +2183,10 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2095,7 +2195,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D7"/>
@@ -2126,32 +2226,32 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2160,7 +2260,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D6"/>
@@ -2192,7 +2292,7 @@
     </row>
     <row r="2" s="2" customFormat="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -2200,15 +2300,15 @@
     </row>
     <row r="3" s="2" customFormat="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -2224,10 +2324,10 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2236,7 +2336,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D7"/>
@@ -2268,32 +2368,32 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2302,13 +2402,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
@@ -2335,7 +2435,7 @@
     </row>
     <row r="2" s="2" customFormat="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -2349,36 +2449,36 @@
         <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -2387,12 +2487,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -2420,7 +2520,7 @@
     </row>
     <row r="2" s="2" customFormat="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -2428,10 +2528,10 @@
     </row>
     <row r="3" s="2" customFormat="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>32</v>
@@ -2439,7 +2539,7 @@
     </row>
     <row r="4" s="2" customFormat="1" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -2447,10 +2547,10 @@
     </row>
     <row r="5" s="2" customFormat="1" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -2458,10 +2558,10 @@
     </row>
     <row r="6" s="2" customFormat="1" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>21</v>
@@ -2469,10 +2569,10 @@
     </row>
     <row r="7" s="2" customFormat="1" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>32</v>
@@ -2480,64 +2580,64 @@
     </row>
     <row r="8" s="2" customFormat="1" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B14" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2546,13 +2646,148 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="19.6333333333333" customWidth="1"/>
+    <col min="2" max="2" width="37.8166666666667" customWidth="1"/>
+    <col min="3" max="3" width="12.5416666666667" customWidth="1"/>
+    <col min="4" max="4" width="19.0916666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="2:3">
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" s="3" customFormat="1" spans="1:2">
+      <c r="A11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
@@ -2579,7 +2814,7 @@
     </row>
     <row r="2" s="2" customFormat="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -2587,10 +2822,10 @@
     </row>
     <row r="3" s="2" customFormat="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>32</v>
@@ -2598,10 +2833,10 @@
     </row>
     <row r="4" s="2" customFormat="1" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -2609,10 +2844,10 @@
     </row>
     <row r="5" s="2" customFormat="1" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>32</v>
@@ -2623,7 +2858,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2632,16 +2867,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="19.6333333333333" customWidth="1"/>
     <col min="2" max="2" width="37.8166666666667" customWidth="1"/>
@@ -2665,103 +2900,57 @@
     </row>
     <row r="2" s="2" customFormat="1" spans="2:3">
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:2">
+    <row r="3" s="2" customFormat="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="1:3">
+        <v>44</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="1:4">
+      <c r="D4" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" spans="1:3">
-      <c r="A7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="2" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" spans="1:3">
-      <c r="A8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" s="2" customFormat="1" spans="1:3">
-      <c r="A9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2770,7 +2959,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D9"/>
@@ -2803,7 +2992,7 @@
     </row>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -2825,49 +3014,49 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
         <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -2875,30 +3064,30 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
         <v>75</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2907,7 +3096,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D9"/>
@@ -2939,7 +3128,7 @@
     </row>
     <row r="2" s="2" customFormat="1" spans="2:3">
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -2947,10 +3136,10 @@
     </row>
     <row r="3" s="2" customFormat="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:2">
@@ -2958,12 +3147,12 @@
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>40</v>
@@ -2988,10 +3177,10 @@
     </row>
     <row r="7" s="2" customFormat="1" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>21</v>
@@ -2999,10 +3188,10 @@
     </row>
     <row r="8" s="2" customFormat="1" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>32</v>
@@ -3010,13 +3199,13 @@
     </row>
     <row r="9" s="2" customFormat="1" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -3025,7 +3214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D10"/>
@@ -3057,10 +3246,10 @@
     </row>
     <row r="2" s="2" customFormat="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -3068,10 +3257,10 @@
     </row>
     <row r="3" s="2" customFormat="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>32</v>
@@ -3079,10 +3268,10 @@
     </row>
     <row r="4" s="2" customFormat="1" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>32</v>
@@ -3090,35 +3279,35 @@
     </row>
     <row r="5" s="2" customFormat="1" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>21</v>
@@ -3129,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>32</v>
@@ -3137,24 +3326,24 @@
     </row>
     <row r="9" s="2" customFormat="1" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3163,7 +3352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D4"/>
@@ -3196,20 +3385,20 @@
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -3221,7 +3410,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D10"/>
@@ -3254,15 +3443,15 @@
     </row>
     <row r="2" s="2" customFormat="1" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>32</v>
@@ -3270,10 +3459,10 @@
     </row>
     <row r="4" s="2" customFormat="1" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>32</v>
@@ -3281,18 +3470,18 @@
     </row>
     <row r="5" s="2" customFormat="1" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
@@ -3303,44 +3492,44 @@
     </row>
     <row r="7" s="2" customFormat="1" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3348,7 +3537,7 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3357,7 +3546,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D4"/>
@@ -3389,7 +3578,7 @@
     <row r="2" spans="1:3">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -3397,7 +3586,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
@@ -3408,102 +3597,12 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="21.4583333333333" customWidth="1"/>
-    <col min="2" max="2" width="20.8166666666667" customWidth="1"/>
-    <col min="4" max="4" width="36.1833333333333" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2">
-      <c r="B2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" t="s">
         <v>32</v>
       </c>
     </row>

--- a/后台表.xlsx
+++ b/后台表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12465" tabRatio="799" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="28245" windowHeight="12465" tabRatio="799" firstSheet="5" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -27,13 +27,14 @@
     <sheet name="stores" sheetId="9" r:id="rId18"/>
     <sheet name="items" sheetId="10" r:id="rId19"/>
     <sheet name="evaluate" sheetId="21" r:id="rId20"/>
+    <sheet name="赛程表" sheetId="23" r:id="rId21"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="244">
   <si>
     <t>数据项</t>
   </si>
@@ -642,25 +643,168 @@
   </si>
   <si>
     <t>评价人</t>
+  </si>
+  <si>
+    <t>CBA</t>
+  </si>
+  <si>
+    <t>江苏</t>
+  </si>
+  <si>
+    <t>青岛</t>
+  </si>
+  <si>
+    <t>广东</t>
+  </si>
+  <si>
+    <t>浙江</t>
+  </si>
+  <si>
+    <t>深圳</t>
+  </si>
+  <si>
+    <t>四川</t>
+  </si>
+  <si>
+    <t>吉林</t>
+  </si>
+  <si>
+    <t>同曦</t>
+  </si>
+  <si>
+    <t>福建</t>
+  </si>
+  <si>
+    <t>山西</t>
+  </si>
+  <si>
+    <t>龙狮</t>
+  </si>
+  <si>
+    <t>新疆</t>
+  </si>
+  <si>
+    <t>广厦</t>
+  </si>
+  <si>
+    <t>上海</t>
+  </si>
+  <si>
+    <t>辽宁</t>
+  </si>
+  <si>
+    <t>天津</t>
+  </si>
+  <si>
+    <t>北控</t>
+  </si>
+  <si>
+    <t>山东</t>
+  </si>
+  <si>
+    <t>北京</t>
+  </si>
+  <si>
+    <t>NBA</t>
+  </si>
+  <si>
+    <t>猛龙</t>
+  </si>
+  <si>
+    <t>热火</t>
+  </si>
+  <si>
+    <t>快船</t>
+  </si>
+  <si>
+    <t>湖人</t>
+  </si>
+  <si>
+    <t>魔术</t>
+  </si>
+  <si>
+    <t>篮网</t>
+  </si>
+  <si>
+    <t>灰熊</t>
+  </si>
+  <si>
+    <t>开拓者</t>
+  </si>
+  <si>
+    <t>太阳</t>
+  </si>
+  <si>
+    <t>奇才</t>
+  </si>
+  <si>
+    <t>凯尔特人</t>
+  </si>
+  <si>
+    <t>雄鹿</t>
+  </si>
+  <si>
+    <t>国王</t>
+  </si>
+  <si>
+    <t>黄蜂</t>
+  </si>
+  <si>
+    <t>火箭</t>
+  </si>
+  <si>
+    <t>独行侠</t>
+  </si>
+  <si>
+    <t>2020-08-03 </t>
+  </si>
+  <si>
+    <t>2020-08-05 </t>
+  </si>
+  <si>
+    <t>2020-08-06 </t>
+  </si>
+  <si>
+    <t>2020-08-07 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF191919"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF191919"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -685,53 +829,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -754,6 +853,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -770,8 +898,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -785,16 +922,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -807,15 +952,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -824,7 +968,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,49 +1094,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -896,67 +1118,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -968,19 +1136,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -992,25 +1160,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1039,36 +1189,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1093,22 +1213,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1136,6 +1251,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1144,10 +1294,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1156,141 +1306,168 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1299,7 +1476,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1624,7 +1801,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1635,83 +1812,83 @@
     <col min="4" max="4" width="51.1833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="10" customFormat="1" spans="1:4">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:3">
-      <c r="A2" s="2" t="s">
+    <row r="2" s="11" customFormat="1" spans="1:3">
+      <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:3">
-      <c r="A3" s="2" t="s">
+    <row r="3" s="11" customFormat="1" spans="1:3">
+      <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:3">
-      <c r="A4" s="2" t="s">
+    <row r="4" s="11" customFormat="1" spans="1:3">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:3">
-      <c r="A5" s="2" t="s">
+    <row r="5" s="11" customFormat="1" spans="1:3">
+      <c r="A5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:3">
-      <c r="A6" s="2" t="s">
+    <row r="6" s="11" customFormat="1" spans="1:3">
+      <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:3">
-      <c r="A7" s="2" t="s">
+    <row r="7" s="11" customFormat="1" spans="1:3">
+      <c r="A7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="11" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1719,7 +1896,7 @@
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
@@ -1730,7 +1907,7 @@
       <c r="A9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="13" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1738,7 +1915,7 @@
       <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C10" t="s">
@@ -1749,7 +1926,7 @@
       <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="13" t="s">
         <v>27</v>
       </c>
       <c r="C11" t="s">
@@ -1760,7 +1937,7 @@
       <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="13" t="s">
         <v>29</v>
       </c>
       <c r="C12" t="s">
@@ -1771,7 +1948,7 @@
       <c r="A13" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C13" t="s">
@@ -1785,7 +1962,7 @@
       <c r="A14" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="13" t="s">
         <v>35</v>
       </c>
       <c r="C14" t="s">
@@ -1796,7 +1973,7 @@
       <c r="A15" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="13" t="s">
         <v>37</v>
       </c>
       <c r="C15" t="s">
@@ -1833,17 +2010,17 @@
     <col min="4" max="4" width="36.1833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="10" customFormat="1" spans="1:4">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1921,17 +2098,17 @@
     <col min="4" max="4" width="16.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="10" customFormat="1" spans="1:4">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1995,47 +2172,47 @@
     <col min="4" max="4" width="15.0916666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="10" customFormat="1" spans="1:4">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="2:3">
-      <c r="B2" s="2" t="s">
+    <row r="2" s="11" customFormat="1" spans="2:3">
+      <c r="B2" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="2:4">
-      <c r="B3" s="2" t="s">
+    <row r="3" s="11" customFormat="1" spans="2:4">
+      <c r="B3" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="11" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="2:4">
-      <c r="B4" s="2" t="s">
+    <row r="4" s="11" customFormat="1" spans="2:4">
+      <c r="B4" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="11" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2069,17 +2246,17 @@
     <col min="4" max="4" width="30.1833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="10" customFormat="1" spans="1:4">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2135,49 +2312,49 @@
     <col min="4" max="4" width="23.1833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="10" customFormat="1" spans="1:4">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:3">
-      <c r="A2" s="2" t="s">
+    <row r="2" s="11" customFormat="1" spans="1:3">
+      <c r="A2" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:3">
-      <c r="A3" s="2" t="s">
+    <row r="3" s="11" customFormat="1" spans="1:3">
+      <c r="A3" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:3">
-      <c r="A4" s="2" t="s">
+    <row r="4" s="11" customFormat="1" spans="1:3">
+      <c r="A4" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:3">
-      <c r="A5" s="2" t="s">
+    <row r="5" s="11" customFormat="1" spans="1:3">
+      <c r="A5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="11" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2210,17 +2387,17 @@
     <col min="2" max="2" width="25.8166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="10" customFormat="1" spans="1:4">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2276,49 +2453,49 @@
     <col min="4" max="4" width="25.275" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="10" customFormat="1" spans="1:4">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:3">
-      <c r="A2" s="2" t="s">
+    <row r="2" s="11" customFormat="1" spans="1:3">
+      <c r="A2" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:3">
-      <c r="A3" s="2" t="s">
+    <row r="3" s="11" customFormat="1" spans="1:3">
+      <c r="A3" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:3">
-      <c r="A4" s="2" t="s">
+    <row r="4" s="11" customFormat="1" spans="1:3">
+      <c r="A4" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:3">
-      <c r="A5" s="2" t="s">
+    <row r="5" s="11" customFormat="1" spans="1:3">
+      <c r="A5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="11" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2352,17 +2529,17 @@
     <col min="4" max="4" width="32.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="10" customFormat="1" spans="1:4">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2419,57 +2596,57 @@
     <col min="4" max="4" width="35.275" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="10" customFormat="1" spans="1:4">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:3">
-      <c r="A2" s="2" t="s">
+    <row r="2" s="11" customFormat="1" spans="1:3">
+      <c r="A2" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:4">
-      <c r="A3" s="2" t="s">
+    <row r="3" s="11" customFormat="1" spans="1:4">
+      <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="11" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:1">
-      <c r="A4" s="2" t="s">
+    <row r="4" s="11" customFormat="1" spans="1:1">
+      <c r="A4" s="11" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:2">
-      <c r="A5" s="2" t="s">
+    <row r="5" s="11" customFormat="1" spans="1:2">
+      <c r="A5" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="11" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:2">
-      <c r="A6" s="2" t="s">
+    <row r="6" s="11" customFormat="1" spans="1:2">
+      <c r="A6" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="11" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2504,131 +2681,131 @@
     <col min="4" max="4" width="19.275" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="10" customFormat="1" spans="1:4">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:3">
-      <c r="A2" s="2" t="s">
+    <row r="2" s="11" customFormat="1" spans="1:3">
+      <c r="A2" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:3">
-      <c r="A3" s="2" t="s">
+    <row r="3" s="11" customFormat="1" spans="1:3">
+      <c r="A3" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:3">
-      <c r="A4" s="2" t="s">
+    <row r="4" s="11" customFormat="1" spans="1:3">
+      <c r="A4" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:3">
-      <c r="A5" s="2" t="s">
+    <row r="5" s="11" customFormat="1" spans="1:3">
+      <c r="A5" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:3">
-      <c r="A6" s="2" t="s">
+    <row r="6" s="11" customFormat="1" spans="1:3">
+      <c r="A6" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:3">
-      <c r="A7" s="2" t="s">
+    <row r="7" s="11" customFormat="1" spans="1:3">
+      <c r="A7" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:2">
-      <c r="A8" s="2" t="s">
+    <row r="8" s="11" customFormat="1" spans="1:2">
+      <c r="A8" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="11" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:2">
-      <c r="A9" s="2" t="s">
+    <row r="9" s="11" customFormat="1" spans="1:2">
+      <c r="A9" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="11" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" spans="1:2">
-      <c r="A10" s="2" t="s">
+    <row r="10" s="11" customFormat="1" spans="1:2">
+      <c r="A10" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="11" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" spans="1:2">
-      <c r="A11" s="2" t="s">
+    <row r="11" s="11" customFormat="1" spans="1:2">
+      <c r="A11" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="11" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" spans="1:3">
-      <c r="A12" s="2" t="s">
+    <row r="12" s="11" customFormat="1" spans="1:3">
+      <c r="A12" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="11" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" spans="1:3">
-      <c r="A13" s="2" t="s">
+    <row r="13" s="11" customFormat="1" spans="1:3">
+      <c r="A13" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="11" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2651,8 +2828,8 @@
   <sheetPr/>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2663,91 +2840,91 @@
     <col min="4" max="4" width="19.0916666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="10" customFormat="1" spans="1:4">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="2:3">
-      <c r="B2" s="2" t="s">
+    <row r="2" s="11" customFormat="1" spans="2:3">
+      <c r="B2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:2">
-      <c r="A3" s="2" t="s">
+    <row r="3" s="11" customFormat="1" spans="1:2">
+      <c r="A3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:3">
-      <c r="A4" s="2" t="s">
+    <row r="4" s="11" customFormat="1" spans="1:3">
+      <c r="A4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:4">
-      <c r="A5" s="2" t="s">
+    <row r="5" s="11" customFormat="1" spans="1:4">
+      <c r="A5" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:3">
-      <c r="A6" s="2" t="s">
+    <row r="6" s="11" customFormat="1" spans="1:3">
+      <c r="A6" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:3">
-      <c r="A7" s="2" t="s">
+    <row r="7" s="11" customFormat="1" spans="1:3">
+      <c r="A7" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:3">
-      <c r="A8" s="2" t="s">
+    <row r="8" s="11" customFormat="1" spans="1:3">
+      <c r="A8" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="11" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2767,11 +2944,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" spans="1:2">
-      <c r="A11" s="3" t="s">
+    <row r="11" s="12" customFormat="1" spans="1:2">
+      <c r="A11" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="12" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2798,67 +2975,3936 @@
     <col min="4" max="4" width="19.275" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="10" customFormat="1" spans="1:4">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:3">
-      <c r="A2" s="2" t="s">
+    <row r="2" s="11" customFormat="1" spans="1:3">
+      <c r="A2" s="11" t="s">
         <v>196</v>
       </c>
+      <c r="C2" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" s="11" customFormat="1" spans="1:3">
+      <c r="A3" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" s="11" customFormat="1" spans="1:3">
+      <c r="A4" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" s="11" customFormat="1" spans="1:3">
+      <c r="A5" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" s="11" customFormat="1" spans="1:2">
+      <c r="A6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H148"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="2" max="2" width="9.875"/>
+    <col min="5" max="5" width="11.5" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" ht="29.25" customHeight="1" spans="1:8">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>203</v>
+      </c>
       <c r="C2" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E2" s="3">
+        <v>44121</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>94</v>
+      </c>
+      <c r="H2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" ht="15" spans="1:8">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E3" s="3">
+        <v>44121</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>113</v>
+      </c>
+      <c r="H3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" ht="29.25" customHeight="1" spans="1:8">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E4" s="3">
+        <v>44122</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>93</v>
+      </c>
+      <c r="H4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="1:8">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E5" s="3">
+        <v>44122</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>105</v>
+      </c>
+      <c r="H5">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="1:8">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E6" s="3">
+        <v>44122</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>92</v>
+      </c>
+      <c r="H6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="1:8">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E7" s="3">
+        <v>44122</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>97</v>
+      </c>
+      <c r="H7">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" ht="15" spans="1:8">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E8" s="3">
+        <v>44122</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>122</v>
+      </c>
+      <c r="H8">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" ht="29.25" customHeight="1" spans="1:8">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E9" s="3">
+        <v>44123</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>121</v>
+      </c>
+      <c r="H9">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" ht="15" spans="1:8">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E10" s="3">
+        <v>44123</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>83</v>
+      </c>
+      <c r="H10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" ht="29.25" customHeight="1" spans="1:8">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E11" s="3">
+        <v>44124</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" s="2">
+        <v>88</v>
+      </c>
+      <c r="H11">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" ht="15" spans="1:8">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E12" s="3">
+        <v>44124</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" s="2">
+        <v>126</v>
+      </c>
+      <c r="H12">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" ht="15" spans="1:8">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>203</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E13" s="3">
+        <v>44124</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" s="2">
+        <v>110</v>
+      </c>
+      <c r="H13">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" ht="15" spans="1:8">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>203</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E14" s="3">
+        <v>44124</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" s="2">
+        <v>79</v>
+      </c>
+      <c r="H14">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" ht="15" spans="1:8">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>203</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E15" s="3">
+        <v>44124</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" s="2">
+        <v>95</v>
+      </c>
+      <c r="H15">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" ht="15" spans="1:8">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E16" s="3">
+        <v>44124</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" s="2">
+        <v>75</v>
+      </c>
+      <c r="H16">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" ht="29.25" customHeight="1" spans="1:8">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>203</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E17" s="3">
+        <v>44125</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" s="2">
+        <v>92</v>
+      </c>
+      <c r="H17">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" ht="15" spans="1:8">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>203</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E18" s="3">
+        <v>44125</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" s="2">
+        <v>110</v>
+      </c>
+      <c r="H18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" ht="15" spans="1:8">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E19" s="3">
+        <v>44125</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" s="2">
+        <v>123</v>
+      </c>
+      <c r="H19">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" ht="29.25" customHeight="1" spans="1:8">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>203</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E20" s="3">
+        <v>44126</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20" s="2">
+        <v>92</v>
+      </c>
+      <c r="H20">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" ht="15" spans="1:8">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>203</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E21" s="3">
+        <v>44126</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21" s="2">
+        <v>105</v>
+      </c>
+      <c r="H21">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" ht="15" spans="1:8">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>203</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E22" s="3">
+        <v>44126</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22" s="2">
+        <v>102</v>
+      </c>
+      <c r="H22">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" ht="15" spans="1:8">
+      <c r="A23">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B23" t="s">
+        <v>203</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E23" s="3">
+        <v>44126</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23" s="2">
+        <v>92</v>
+      </c>
+      <c r="H23">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" ht="29.25" customHeight="1" spans="1:8">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>203</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E24" s="3">
+        <v>44127</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24" s="2">
+        <v>87</v>
+      </c>
+      <c r="H24">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" ht="15" spans="1:8">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>203</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E25" s="3">
+        <v>44127</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25" s="2">
+        <v>97</v>
+      </c>
+      <c r="H25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" ht="15" spans="1:8">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>203</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E26" s="3">
+        <v>44127</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26" s="2">
+        <v>104</v>
+      </c>
+      <c r="H26">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" ht="15" spans="1:8">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>203</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E27" s="3">
+        <v>44127</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27" s="2">
+        <v>91</v>
+      </c>
+      <c r="H27">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" ht="15" spans="1:8">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>203</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E28" s="3">
+        <v>44127</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28" s="2">
+        <v>115</v>
+      </c>
+      <c r="H28">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" ht="29.25" customHeight="1" spans="1:8">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>203</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E29" s="3">
+        <v>44128</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29" s="2">
+        <v>116</v>
+      </c>
+      <c r="H29">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" ht="15" spans="1:8">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>203</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E30" s="3">
+        <v>44128</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30" s="2">
+        <v>99</v>
+      </c>
+      <c r="H30">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" ht="29.25" customHeight="1" spans="1:8">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>203</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E31" s="3">
+        <v>44129</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31" s="2">
+        <v>94</v>
+      </c>
+      <c r="H31">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" ht="15" spans="1:8">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>203</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E32" s="3">
+        <v>44129</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32" s="2">
+        <v>97</v>
+      </c>
+      <c r="H32">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" ht="15" spans="1:8">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>203</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E33" s="3">
+        <v>44129</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33" s="2">
+        <v>99</v>
+      </c>
+      <c r="H33">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" ht="15" spans="1:8">
+      <c r="A34">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="1:3">
-      <c r="A4" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="1:3">
-      <c r="A5" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="1:2">
-      <c r="A6" s="2" t="s">
+      <c r="B34" t="s">
+        <v>203</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E34" s="3">
+        <v>44129</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34" s="2">
+        <v>122</v>
+      </c>
+      <c r="H34">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" ht="15" spans="1:8">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>203</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E35" s="3">
+        <v>44129</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35" s="2">
+        <v>86</v>
+      </c>
+      <c r="H35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" ht="29.25" customHeight="1" spans="1:8">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>203</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E36" s="3">
+        <v>44130</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+      <c r="G36" s="2">
+        <v>127</v>
+      </c>
+      <c r="H36">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" ht="15" spans="1:8">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>203</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E37" s="3">
+        <v>44130</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="G37" s="2">
+        <v>116</v>
+      </c>
+      <c r="H37">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" ht="29.25" customHeight="1" spans="1:8">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>203</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E38" s="3">
+        <v>44131</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38" s="2">
+        <v>87</v>
+      </c>
+      <c r="H38">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" ht="15" spans="1:8">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>203</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E39" s="3">
+        <v>44131</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39" s="2">
+        <v>90</v>
+      </c>
+      <c r="H39">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" ht="15" spans="1:8">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>203</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E40" s="3">
+        <v>44131</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
+      <c r="G40" s="2">
+        <v>87</v>
+      </c>
+      <c r="H40">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" ht="15" spans="1:8">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>203</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E41" s="3">
+        <v>44131</v>
+      </c>
+      <c r="F41">
+        <v>5</v>
+      </c>
+      <c r="G41" s="2">
+        <v>104</v>
+      </c>
+      <c r="H41">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" ht="29.25" customHeight="1" spans="1:8">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>203</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E42" s="3">
+        <v>44132</v>
+      </c>
+      <c r="F42">
+        <v>5</v>
+      </c>
+      <c r="G42" s="2">
+        <v>113</v>
+      </c>
+      <c r="H42">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" ht="15" spans="1:8">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>203</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E43" s="3">
+        <v>44132</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43" s="2">
+        <v>97</v>
+      </c>
+      <c r="H43">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" ht="15" spans="1:8">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>203</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E44" s="3">
+        <v>44132</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="G44" s="2">
+        <v>91</v>
+      </c>
+      <c r="H44">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" ht="15" spans="1:8">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>203</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E45" s="3">
+        <v>44132</v>
+      </c>
+      <c r="F45">
+        <v>5</v>
+      </c>
+      <c r="G45" s="2">
+        <v>99</v>
+      </c>
+      <c r="H45">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" ht="15" spans="1:8">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>203</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E46" s="3">
+        <v>44132</v>
+      </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="G46" s="2">
+        <v>82</v>
+      </c>
+      <c r="H46">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" ht="15" spans="1:8">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>203</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E47" s="3">
+        <v>44133</v>
+      </c>
+      <c r="F47">
+        <v>6</v>
+      </c>
+      <c r="G47" s="2">
+        <v>103</v>
+      </c>
+      <c r="H47">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" ht="15" spans="1:8">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>203</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E48" s="3">
+        <v>44133</v>
+      </c>
+      <c r="F48">
+        <v>6</v>
+      </c>
+      <c r="G48" s="2">
+        <v>119</v>
+      </c>
+      <c r="H48">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" ht="15" spans="1:8">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>203</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E49" s="3">
+        <v>44133</v>
+      </c>
+      <c r="F49">
+        <v>6</v>
+      </c>
+      <c r="G49" s="2">
+        <v>80</v>
+      </c>
+      <c r="H49">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" ht="29.25" customHeight="1" spans="1:8">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>203</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E50" s="3">
+        <v>44134</v>
+      </c>
+      <c r="F50">
+        <v>6</v>
+      </c>
+      <c r="G50" s="2">
+        <v>95</v>
+      </c>
+      <c r="H50">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" ht="15" spans="1:8">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>203</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E51" s="3">
+        <v>44134</v>
+      </c>
+      <c r="F51">
+        <v>6</v>
+      </c>
+      <c r="G51" s="2">
+        <v>81</v>
+      </c>
+      <c r="H51">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" ht="15" spans="1:8">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>203</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E52" s="3">
+        <v>44134</v>
+      </c>
+      <c r="F52">
+        <v>6</v>
+      </c>
+      <c r="G52" s="2">
+        <v>113</v>
+      </c>
+      <c r="H52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" ht="15" spans="1:8">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>203</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E53" s="3">
+        <v>44134</v>
+      </c>
+      <c r="F53">
+        <v>6</v>
+      </c>
+      <c r="G53" s="2">
+        <v>91</v>
+      </c>
+      <c r="H53">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" ht="15" spans="1:8">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>203</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E54" s="3">
+        <v>44134</v>
+      </c>
+      <c r="F54">
+        <v>6</v>
+      </c>
+      <c r="G54" s="2">
+        <v>103</v>
+      </c>
+      <c r="H54">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" ht="15" spans="1:8">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>203</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E55" s="3">
+        <v>44134</v>
+      </c>
+      <c r="F55">
+        <v>6</v>
+      </c>
+      <c r="G55" s="2">
+        <v>125</v>
+      </c>
+      <c r="H55">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" ht="29.25" customHeight="1" spans="1:8">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>203</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E56" s="4">
+        <v>44135</v>
+      </c>
+      <c r="F56">
+        <v>7</v>
+      </c>
+      <c r="G56" s="2">
+        <v>102</v>
+      </c>
+      <c r="H56">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" ht="29.25" customHeight="1" spans="1:8">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>203</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E57" s="3">
+        <v>44136</v>
+      </c>
+      <c r="F57">
+        <v>7</v>
+      </c>
+      <c r="G57" s="2">
+        <v>96</v>
+      </c>
+      <c r="H57">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" ht="15" spans="1:8">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>203</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E58" s="3">
+        <v>44136</v>
+      </c>
+      <c r="F58">
+        <v>7</v>
+      </c>
+      <c r="G58" s="2">
+        <v>110</v>
+      </c>
+      <c r="H58">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" ht="15" spans="1:8">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>203</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E59" s="3">
+        <v>44136</v>
+      </c>
+      <c r="F59">
+        <v>7</v>
+      </c>
+      <c r="G59" s="2">
+        <v>93</v>
+      </c>
+      <c r="H59">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" ht="15" spans="1:8">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>203</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E60" s="3">
+        <v>44136</v>
+      </c>
+      <c r="F60">
+        <v>7</v>
+      </c>
+      <c r="G60" s="2">
+        <v>94</v>
+      </c>
+      <c r="H60">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" ht="15" spans="1:8">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>203</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E61" s="3">
+        <v>44136</v>
+      </c>
+      <c r="F61">
+        <v>7</v>
+      </c>
+      <c r="G61" s="2">
+        <v>87</v>
+      </c>
+      <c r="H61">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" ht="15" spans="1:8">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>203</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E62" s="3">
+        <v>44136</v>
+      </c>
+      <c r="F62">
+        <v>7</v>
+      </c>
+      <c r="G62" s="2">
+        <v>126</v>
+      </c>
+      <c r="H62">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" ht="29.25" customHeight="1" spans="1:8">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>203</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E63" s="3">
+        <v>44137</v>
+      </c>
+      <c r="F63">
+        <v>7</v>
+      </c>
+      <c r="G63" s="2">
+        <v>117</v>
+      </c>
+      <c r="H63">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="64" ht="15" spans="1:8">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>203</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E64" s="3">
+        <v>44137</v>
+      </c>
+      <c r="F64">
+        <v>7</v>
+      </c>
+      <c r="G64" s="2">
+        <v>93</v>
+      </c>
+      <c r="H64">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="65" ht="15" spans="1:8">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>203</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E65" s="3">
+        <v>44138</v>
+      </c>
+      <c r="F65">
+        <v>8</v>
+      </c>
+      <c r="G65" s="2">
+        <v>90</v>
+      </c>
+      <c r="H65">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" ht="15" spans="1:8">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>203</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E66" s="3">
+        <v>44138</v>
+      </c>
+      <c r="F66">
+        <v>8</v>
+      </c>
+      <c r="G66" s="2">
+        <v>86</v>
+      </c>
+      <c r="H66">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67" ht="15" spans="1:8">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>203</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E67" s="3">
+        <v>44138</v>
+      </c>
+      <c r="F67">
+        <v>8</v>
+      </c>
+      <c r="G67" s="2">
+        <v>80</v>
+      </c>
+      <c r="H67">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" ht="15" spans="1:8">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>203</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E68" s="3">
+        <v>44138</v>
+      </c>
+      <c r="F68">
+        <v>8</v>
+      </c>
+      <c r="G68" s="2">
+        <v>80</v>
+      </c>
+      <c r="H68">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="69" ht="15" spans="1:8">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>203</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E69" s="3">
+        <v>44138</v>
+      </c>
+      <c r="F69">
+        <v>8</v>
+      </c>
+      <c r="G69" s="2">
+        <v>107</v>
+      </c>
+      <c r="H69">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="70" ht="29.25" customHeight="1" spans="1:8">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>203</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E70" s="3">
+        <v>44139</v>
+      </c>
+      <c r="F70">
+        <v>8</v>
+      </c>
+      <c r="G70" s="2">
+        <v>80</v>
+      </c>
+      <c r="H70">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="71" ht="15" spans="1:8">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>203</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E71" s="3">
+        <v>44139</v>
+      </c>
+      <c r="F71">
+        <v>8</v>
+      </c>
+      <c r="G71" s="2">
+        <v>96</v>
+      </c>
+      <c r="H71">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" ht="15" spans="1:8">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>203</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E72" s="3">
+        <v>44139</v>
+      </c>
+      <c r="F72">
+        <v>8</v>
+      </c>
+      <c r="G72" s="2">
+        <v>105</v>
+      </c>
+      <c r="H72">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="73" ht="15" spans="1:8">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>203</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E73" s="3">
+        <v>44139</v>
+      </c>
+      <c r="F73">
+        <v>8</v>
+      </c>
+      <c r="G73" s="2">
+        <v>108</v>
+      </c>
+      <c r="H73">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="74" ht="15" spans="1:8">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>203</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E74" s="3">
+        <v>44140</v>
+      </c>
+      <c r="F74">
+        <v>9</v>
+      </c>
+      <c r="G74" s="2">
+        <v>81</v>
+      </c>
+      <c r="H74">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" ht="15" spans="1:8">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>203</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E75" s="3">
+        <v>44140</v>
+      </c>
+      <c r="F75">
+        <v>9</v>
+      </c>
+      <c r="G75" s="2">
+        <v>131</v>
+      </c>
+      <c r="H75">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="76" ht="15" spans="1:8">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>203</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E76" s="3">
+        <v>44140</v>
+      </c>
+      <c r="F76">
+        <v>9</v>
+      </c>
+      <c r="G76" s="2">
+        <v>83</v>
+      </c>
+      <c r="H76">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" ht="29.25" customHeight="1" spans="1:8">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>203</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E77" s="3">
+        <v>44141</v>
+      </c>
+      <c r="F77">
+        <v>9</v>
+      </c>
+      <c r="G77" s="2">
+        <v>97</v>
+      </c>
+      <c r="H77">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="78" ht="15" spans="1:8">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>203</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E78" s="3">
+        <v>44141</v>
+      </c>
+      <c r="F78">
+        <v>9</v>
+      </c>
+      <c r="G78" s="2">
+        <v>91</v>
+      </c>
+      <c r="H78">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79" ht="15" spans="1:8">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>203</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E79" s="3">
+        <v>44141</v>
+      </c>
+      <c r="F79">
+        <v>9</v>
+      </c>
+      <c r="G79" s="2">
+        <v>108</v>
+      </c>
+      <c r="H79">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="80" ht="15" spans="1:8">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>203</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E80" s="3">
+        <v>44141</v>
+      </c>
+      <c r="F80">
+        <v>9</v>
+      </c>
+      <c r="G80" s="2">
+        <v>128</v>
+      </c>
+      <c r="H80">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="81" ht="15" spans="1:8">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>203</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E81" s="3">
+        <v>44141</v>
+      </c>
+      <c r="F81">
+        <v>9</v>
+      </c>
+      <c r="G81" s="2">
+        <v>109</v>
+      </c>
+      <c r="H81">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="82" ht="15" spans="1:8">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>203</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E82" s="3">
+        <v>44141</v>
+      </c>
+      <c r="F82">
+        <v>9</v>
+      </c>
+      <c r="G82" s="2">
+        <v>98</v>
+      </c>
+      <c r="H82">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="83" ht="29.25" customHeight="1" spans="1:8">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>203</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E83" s="3">
+        <v>44142</v>
+      </c>
+      <c r="F83">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>202</v>
+      <c r="G83" s="2">
+        <v>121</v>
+      </c>
+      <c r="H83">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="84" ht="15" spans="1:8">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>203</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E84" s="3">
+        <v>44142</v>
+      </c>
+      <c r="F84">
+        <v>10</v>
+      </c>
+      <c r="G84" s="2">
+        <v>97</v>
+      </c>
+      <c r="H84">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="85" ht="15" spans="1:8">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>203</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E85" s="3">
+        <v>44143</v>
+      </c>
+      <c r="F85">
+        <v>10</v>
+      </c>
+      <c r="G85" s="2">
+        <v>112</v>
+      </c>
+      <c r="H85">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="86" ht="15" spans="1:8">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>203</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E86" s="3">
+        <v>44143</v>
+      </c>
+      <c r="F86">
+        <v>10</v>
+      </c>
+      <c r="G86" s="2">
+        <v>103</v>
+      </c>
+      <c r="H86">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87" ht="15" spans="1:8">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>203</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E87" s="3">
+        <v>44143</v>
+      </c>
+      <c r="F87">
+        <v>10</v>
+      </c>
+      <c r="G87" s="2">
+        <v>112</v>
+      </c>
+      <c r="H87">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="88" ht="15" spans="1:8">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>203</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E88" s="3">
+        <v>44143</v>
+      </c>
+      <c r="F88">
+        <v>10</v>
+      </c>
+      <c r="G88" s="2">
+        <v>117</v>
+      </c>
+      <c r="H88">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="89" ht="29.25" customHeight="1" spans="1:8">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>203</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E89" s="3">
+        <v>44144</v>
+      </c>
+      <c r="F89">
+        <v>10</v>
+      </c>
+      <c r="G89" s="2">
+        <v>105</v>
+      </c>
+      <c r="H89">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="90" ht="15" spans="1:8">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>203</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E90" s="3">
+        <v>44144</v>
+      </c>
+      <c r="F90">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2">
+        <v>104</v>
+      </c>
+      <c r="H90">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="91" ht="15" spans="1:8">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>203</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E91" s="3">
+        <v>44144</v>
+      </c>
+      <c r="F91">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2">
+        <v>117</v>
+      </c>
+      <c r="H91">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="92" ht="15" spans="1:8">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>203</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E92" s="3">
+        <v>44145</v>
+      </c>
+      <c r="F92">
+        <v>11</v>
+      </c>
+      <c r="G92" s="2">
+        <v>104</v>
+      </c>
+      <c r="H92">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="93" ht="15" spans="1:8">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>203</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E93" s="3">
+        <v>44146</v>
+      </c>
+      <c r="F93">
+        <v>11</v>
+      </c>
+      <c r="G93" s="2">
+        <v>99</v>
+      </c>
+      <c r="H93">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="94" ht="29.25" customHeight="1" spans="1:8">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>203</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E94" s="3">
+        <v>44146</v>
+      </c>
+      <c r="F94">
+        <v>11</v>
+      </c>
+      <c r="G94" s="2">
+        <v>97</v>
+      </c>
+      <c r="H94">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="95" ht="15" spans="1:8">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>203</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E95" s="3">
+        <v>44146</v>
+      </c>
+      <c r="F95">
+        <v>11</v>
+      </c>
+      <c r="G95" s="2">
+        <v>102</v>
+      </c>
+      <c r="H95">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="96" ht="15" spans="1:8">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>203</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E96" s="3">
+        <v>44146</v>
+      </c>
+      <c r="F96">
+        <v>11</v>
+      </c>
+      <c r="G96" s="2">
+        <v>94</v>
+      </c>
+      <c r="H96">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="97" ht="15" spans="1:8">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>203</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E97" s="3">
+        <v>44146</v>
+      </c>
+      <c r="F97">
+        <v>11</v>
+      </c>
+      <c r="G97" s="2">
+        <v>92</v>
+      </c>
+      <c r="H97">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="98" ht="15" spans="1:8">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>203</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E98" s="3">
+        <v>44146</v>
+      </c>
+      <c r="F98">
+        <v>11</v>
+      </c>
+      <c r="G98" s="2">
+        <v>125</v>
+      </c>
+      <c r="H98">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="99" ht="15" spans="1:8">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>203</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E99" s="3">
+        <v>44146</v>
+      </c>
+      <c r="F99">
+        <v>11</v>
+      </c>
+      <c r="G99" s="2">
+        <v>111</v>
+      </c>
+      <c r="H99">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" ht="29.25" customHeight="1" spans="1:8">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>203</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E100" s="3">
+        <v>44147</v>
+      </c>
+      <c r="F100">
+        <v>12</v>
+      </c>
+      <c r="G100" s="2">
+        <v>104</v>
+      </c>
+      <c r="H100">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="101" ht="15" spans="1:8">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>203</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E101" s="3">
+        <v>44147</v>
+      </c>
+      <c r="F101">
+        <v>12</v>
+      </c>
+      <c r="G101" s="2">
+        <v>121</v>
+      </c>
+      <c r="H101">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="102" ht="29.25" customHeight="1" spans="1:8">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>203</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E102" s="3">
+        <v>44148</v>
+      </c>
+      <c r="F102">
+        <v>12</v>
+      </c>
+      <c r="G102" s="2">
+        <v>100</v>
+      </c>
+      <c r="H102">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="103" ht="15" spans="1:8">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>203</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E103" s="3">
+        <v>44148</v>
+      </c>
+      <c r="F103">
+        <v>12</v>
+      </c>
+      <c r="G103" s="2">
+        <v>94</v>
+      </c>
+      <c r="H103">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" ht="15" spans="1:8">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>203</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E104" s="3">
+        <v>44148</v>
+      </c>
+      <c r="F104">
+        <v>12</v>
+      </c>
+      <c r="G104" s="2">
+        <v>99</v>
+      </c>
+      <c r="H104">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="105" ht="29.25" customHeight="1" spans="1:8">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>203</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E105" s="3">
+        <v>44149</v>
+      </c>
+      <c r="F105">
+        <v>12</v>
+      </c>
+      <c r="G105" s="2">
+        <v>143</v>
+      </c>
+      <c r="H105">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="106" ht="15" spans="1:8">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>203</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E106" s="3">
+        <v>44149</v>
+      </c>
+      <c r="F106">
+        <v>12</v>
+      </c>
+      <c r="G106" s="2">
+        <v>108</v>
+      </c>
+      <c r="H106">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="107" ht="15" spans="1:8">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>203</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E107" s="3">
+        <v>44149</v>
+      </c>
+      <c r="F107">
+        <v>12</v>
+      </c>
+      <c r="G107" s="2">
+        <v>131</v>
+      </c>
+      <c r="H107">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108" ht="15" spans="1:8">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>203</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E108" s="3">
+        <v>44149</v>
+      </c>
+      <c r="F108">
+        <v>12</v>
+      </c>
+      <c r="G108" s="2">
+        <v>76</v>
+      </c>
+      <c r="H108">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="109" ht="15" spans="1:8">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E109" s="7">
+        <v>44043</v>
+      </c>
+      <c r="F109" s="8">
+        <v>1</v>
+      </c>
+      <c r="G109" s="9">
+        <v>106</v>
+      </c>
+      <c r="H109">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="110" ht="15" spans="1:8">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="E110" s="7">
+        <v>44043</v>
+      </c>
+      <c r="F110" s="8">
+        <v>1</v>
+      </c>
+      <c r="G110" s="9">
+        <v>101</v>
+      </c>
+      <c r="H110">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="111" ht="15" spans="1:8">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="E111" s="7">
+        <v>44044</v>
+      </c>
+      <c r="F111" s="8">
+        <v>1</v>
+      </c>
+      <c r="G111" s="9">
+        <v>128</v>
+      </c>
+      <c r="H111">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="112" ht="15" spans="1:8">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="E112" s="7">
+        <v>44044</v>
+      </c>
+      <c r="F112" s="8">
+        <v>1</v>
+      </c>
+      <c r="G112" s="9">
+        <v>135</v>
+      </c>
+      <c r="H112">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="113" ht="15" spans="1:8">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="E113" s="7">
+        <v>44044</v>
+      </c>
+      <c r="F113" s="8">
+        <v>1</v>
+      </c>
+      <c r="G113" s="9">
+        <v>125</v>
+      </c>
+      <c r="H113">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" ht="15" spans="1:8">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="E114" s="7">
+        <v>44044</v>
+      </c>
+      <c r="F114" s="8">
+        <v>1</v>
+      </c>
+      <c r="G114" s="9">
+        <v>112</v>
+      </c>
+      <c r="H114">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="115" ht="15" spans="1:8">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E115" s="7">
+        <v>44044</v>
+      </c>
+      <c r="F115" s="8">
+        <v>1</v>
+      </c>
+      <c r="G115" s="9">
+        <v>120</v>
+      </c>
+      <c r="H115">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="116" ht="15" spans="1:8">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="E116" s="7">
+        <v>44044</v>
+      </c>
+      <c r="F116" s="8">
+        <v>1</v>
+      </c>
+      <c r="G116" s="9">
+        <v>153</v>
+      </c>
+      <c r="H116">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="117" ht="15" spans="1:8">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E117" s="7">
+        <v>44045</v>
+      </c>
+      <c r="F117">
+        <v>2</v>
+      </c>
+      <c r="G117" s="9">
+        <v>125</v>
+      </c>
+      <c r="H117">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="118" ht="15" spans="1:8">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="E118" s="7">
+        <v>44045</v>
+      </c>
+      <c r="F118">
+        <v>2</v>
+      </c>
+      <c r="G118" s="9">
+        <v>94</v>
+      </c>
+      <c r="H118">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119" ht="15" spans="1:8">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="E119" s="7">
+        <v>44045</v>
+      </c>
+      <c r="F119">
+        <v>2</v>
+      </c>
+      <c r="G119" s="9">
+        <v>103</v>
+      </c>
+      <c r="H119">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="120" ht="15" spans="1:8">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="E120" s="7">
+        <v>44045</v>
+      </c>
+      <c r="F120">
+        <v>2</v>
+      </c>
+      <c r="G120" s="9">
+        <v>121</v>
+      </c>
+      <c r="H120">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="121" ht="15" spans="1:8">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="E121" s="7">
+        <v>44045</v>
+      </c>
+      <c r="F121">
+        <v>2</v>
+      </c>
+      <c r="G121" s="9">
+        <v>92</v>
+      </c>
+      <c r="H121">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="122" ht="15" spans="1:8">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="F122">
+        <v>2</v>
+      </c>
+      <c r="G122" s="9">
+        <v>110</v>
+      </c>
+      <c r="H122">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="123" ht="15" spans="1:8">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="F123">
+        <v>2</v>
+      </c>
+      <c r="G123" s="9">
+        <v>124</v>
+      </c>
+      <c r="H123">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="124" ht="15" spans="1:8">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="E124" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="F124">
+        <v>2</v>
+      </c>
+      <c r="G124" s="9">
+        <v>108</v>
+      </c>
+      <c r="H124">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="125" ht="15" spans="1:8">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D125" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="E125" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="F125">
+        <v>3</v>
+      </c>
+      <c r="G125" s="9">
+        <v>116</v>
+      </c>
+      <c r="H125">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="126" ht="15" spans="1:8">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D126" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="E126" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="F126">
+        <v>3</v>
+      </c>
+      <c r="G126" s="9">
+        <v>116</v>
+      </c>
+      <c r="H126">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="127" ht="15" spans="1:8">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="D127" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="E127" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="F127">
+        <v>3</v>
+      </c>
+      <c r="G127" s="9">
+        <v>115</v>
+      </c>
+      <c r="H127">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="128" ht="15" spans="1:8">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D128" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="E128" s="7">
+        <v>44047</v>
+      </c>
+      <c r="F128">
+        <v>3</v>
+      </c>
+      <c r="G128" s="9">
+        <v>107</v>
+      </c>
+      <c r="H128">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="129" ht="15" spans="1:8">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="D129" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="E129" s="7">
+        <v>44047</v>
+      </c>
+      <c r="F129">
+        <v>3</v>
+      </c>
+      <c r="G129" s="9">
+        <v>111</v>
+      </c>
+      <c r="H129">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="130" ht="15" spans="1:8">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E130" s="7">
+        <v>44047</v>
+      </c>
+      <c r="F130">
+        <v>3</v>
+      </c>
+      <c r="G130" s="9">
+        <v>121</v>
+      </c>
+      <c r="H130">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="131" ht="15" spans="1:8">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="E131" s="7">
+        <v>44047</v>
+      </c>
+      <c r="F131">
+        <v>3</v>
+      </c>
+      <c r="G131" s="9">
+        <v>99</v>
+      </c>
+      <c r="H131">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="132" ht="15" spans="1:8">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E132" s="7">
+        <v>44047</v>
+      </c>
+      <c r="F132">
+        <v>3</v>
+      </c>
+      <c r="G132" s="9">
+        <v>130</v>
+      </c>
+      <c r="H132">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="133" ht="15" spans="1:8">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E133" s="7">
+        <v>44047</v>
+      </c>
+      <c r="F133">
+        <v>4</v>
+      </c>
+      <c r="G133" s="9">
+        <v>116</v>
+      </c>
+      <c r="H133">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="134" ht="15" spans="1:8">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="E134" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="F134">
+        <v>4</v>
+      </c>
+      <c r="G134" s="9">
+        <v>119</v>
+      </c>
+      <c r="H134">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="135" ht="15" spans="1:8">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="D135" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="E135" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="F135">
+        <v>4</v>
+      </c>
+      <c r="G135" s="9">
+        <v>114</v>
+      </c>
+      <c r="H135">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="136" ht="15" spans="1:8">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D136" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="E136" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="F136">
+        <v>4</v>
+      </c>
+      <c r="G136" s="9">
+        <v>117</v>
+      </c>
+      <c r="H136">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="137" ht="15" spans="1:8">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E137" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="F137">
+        <v>4</v>
+      </c>
+      <c r="G137" s="9">
+        <v>109</v>
+      </c>
+      <c r="H137">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="138" ht="15" spans="1:8">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="D138" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="E138" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="F138">
+        <v>4</v>
+      </c>
+      <c r="G138" s="9">
+        <v>106</v>
+      </c>
+      <c r="H138">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="139" ht="15" spans="1:8">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E139" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="F139">
+        <v>4</v>
+      </c>
+      <c r="G139" s="9">
+        <v>102</v>
+      </c>
+      <c r="H139">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="140" ht="15" spans="1:8">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="D140" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="E140" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="F140">
+        <v>4</v>
+      </c>
+      <c r="G140" s="9">
+        <v>115</v>
+      </c>
+      <c r="H140">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="141" ht="15" spans="1:8">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C141" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E141" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="F141">
+        <v>5</v>
+      </c>
+      <c r="G141" s="9">
+        <v>132</v>
+      </c>
+      <c r="H141">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="142" ht="15" spans="1:8">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="D142" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E142" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="F142">
+        <v>5</v>
+      </c>
+      <c r="G142" s="9">
+        <v>107</v>
+      </c>
+      <c r="H142">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="143" ht="15" spans="1:8">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D143" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="E143" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="F143">
+        <v>5</v>
+      </c>
+      <c r="G143" s="9">
+        <v>105</v>
+      </c>
+      <c r="H143">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="144" ht="15" spans="1:8">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D144" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E144" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="F144">
+        <v>5</v>
+      </c>
+      <c r="G144" s="9">
+        <v>109</v>
+      </c>
+      <c r="H144">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="145" ht="15" spans="1:8">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="D145" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E145" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="F145">
+        <v>5</v>
+      </c>
+      <c r="G145" s="9">
+        <v>115</v>
+      </c>
+      <c r="H145">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="146" ht="15" spans="1:8">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D146" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="E146" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="F146">
+        <v>5</v>
+      </c>
+      <c r="G146" s="9">
+        <v>125</v>
+      </c>
+      <c r="H146">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="147" ht="15" spans="1:8">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="D147" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="E147" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="F147">
+        <v>5</v>
+      </c>
+      <c r="G147" s="9">
+        <v>94</v>
+      </c>
+      <c r="H147">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="148" ht="15" spans="1:8">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D148" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="E148" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="F148">
+        <v>5</v>
+      </c>
+      <c r="G148" s="9">
+        <v>103</v>
+      </c>
+      <c r="H148">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2884,72 +6930,72 @@
     <col min="4" max="4" width="19.0916666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="10" customFormat="1" spans="1:4">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="2:3">
-      <c r="B2" s="2" t="s">
+    <row r="2" s="11" customFormat="1" spans="2:3">
+      <c r="B2" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:3">
-      <c r="A3" s="2" t="s">
+    <row r="3" s="11" customFormat="1" spans="1:3">
+      <c r="A3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:4">
-      <c r="A4" s="2" t="s">
+    <row r="4" s="11" customFormat="1" spans="1:4">
+      <c r="A4" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:3">
-      <c r="A5" s="2" t="s">
+    <row r="5" s="11" customFormat="1" spans="1:3">
+      <c r="A5" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:3">
-      <c r="A6" s="2" t="s">
+    <row r="6" s="11" customFormat="1" spans="1:3">
+      <c r="A6" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="11" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2976,17 +7022,17 @@
     <col min="4" max="4" width="17.5416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="10" customFormat="1" spans="1:4">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3112,99 +7158,99 @@
     <col min="3" max="3" width="13.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="10" customFormat="1" spans="1:4">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="2:3">
-      <c r="B2" s="2" t="s">
+    <row r="2" s="11" customFormat="1" spans="2:3">
+      <c r="B2" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:2">
-      <c r="A3" s="2" t="s">
+    <row r="3" s="11" customFormat="1" spans="1:2">
+      <c r="A3" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:2">
-      <c r="A4" s="2" t="s">
+    <row r="4" s="11" customFormat="1" spans="1:2">
+      <c r="A4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:3">
-      <c r="A5" s="2" t="s">
+    <row r="5" s="11" customFormat="1" spans="1:3">
+      <c r="A5" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:4">
-      <c r="A6" s="2" t="s">
+    <row r="6" s="11" customFormat="1" spans="1:4">
+      <c r="A6" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:3">
-      <c r="A7" s="2" t="s">
+    <row r="7" s="11" customFormat="1" spans="1:3">
+      <c r="A7" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:3">
-      <c r="A8" s="2" t="s">
+    <row r="8" s="11" customFormat="1" spans="1:3">
+      <c r="A8" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:3">
-      <c r="A9" s="2" t="s">
+    <row r="9" s="11" customFormat="1" spans="1:3">
+      <c r="A9" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="11" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3230,111 +7276,111 @@
     <col min="4" max="4" width="25.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="10" customFormat="1" spans="1:4">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:3">
-      <c r="A2" s="2" t="s">
+    <row r="2" s="11" customFormat="1" spans="1:3">
+      <c r="A2" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:3">
-      <c r="A3" s="2" t="s">
+    <row r="3" s="11" customFormat="1" spans="1:3">
+      <c r="A3" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:3">
-      <c r="A4" s="2" t="s">
+    <row r="4" s="11" customFormat="1" spans="1:3">
+      <c r="A4" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:3">
-      <c r="A5" s="2" t="s">
+    <row r="5" s="11" customFormat="1" spans="1:3">
+      <c r="A5" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:4">
-      <c r="A6" s="2" t="s">
+    <row r="6" s="11" customFormat="1" spans="1:4">
+      <c r="A6" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="11" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:3">
-      <c r="A7" s="2" t="s">
+    <row r="7" s="11" customFormat="1" spans="1:3">
+      <c r="A7" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:3">
-      <c r="A8" s="2" t="s">
+    <row r="8" s="11" customFormat="1" spans="1:3">
+      <c r="A8" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:4">
-      <c r="A9" s="2" t="s">
+    <row r="9" s="11" customFormat="1" spans="1:4">
+      <c r="A9" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="11" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3369,17 +7415,17 @@
     <col min="4" max="4" width="16.3666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="10" customFormat="1" spans="1:4">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3427,108 +7473,108 @@
     <col min="4" max="4" width="25.5416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="10" customFormat="1" spans="1:4">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="2:2">
-      <c r="B2" s="2" t="s">
+    <row r="2" s="11" customFormat="1" spans="2:2">
+      <c r="B2" s="11" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:3">
-      <c r="A3" s="2" t="s">
+    <row r="3" s="11" customFormat="1" spans="1:3">
+      <c r="A3" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:3">
-      <c r="A4" s="2" t="s">
+    <row r="4" s="11" customFormat="1" spans="1:3">
+      <c r="A4" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:3">
-      <c r="A5" s="2" t="s">
+    <row r="5" s="11" customFormat="1" spans="1:3">
+      <c r="A5" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:3">
-      <c r="A6" s="2" t="s">
+    <row r="6" s="11" customFormat="1" spans="1:3">
+      <c r="A6" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:4">
-      <c r="A7" s="2" t="s">
+    <row r="7" s="11" customFormat="1" spans="1:4">
+      <c r="A7" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="11" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:4">
-      <c r="A8" s="2" t="s">
+    <row r="8" s="11" customFormat="1" spans="1:4">
+      <c r="A8" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="11" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:4">
-      <c r="A9" s="2" t="s">
+    <row r="9" s="11" customFormat="1" spans="1:4">
+      <c r="A9" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="11" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3561,48 +7607,48 @@
     <col min="2" max="2" width="19.725" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="10" customFormat="1" spans="1:4">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="11" t="s">
         <v>32</v>
       </c>
     </row>
